--- a/논문데이터분석(TC,FC)/대장균분석자료송부/확정 자료조회_20210107우치주단위.xlsx
+++ b/논문데이터분석(TC,FC)/대장균분석자료송부/확정 자료조회_20210107우치주단위.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="SOM분석변수" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -30492,21 +30492,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" style="10" customWidth="1"/>
-    <col min="11" max="12" width="12.85546875" style="13" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.85546875" style="19" customWidth="1"/>
+    <col min="11" max="12" width="11.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.42578125" style="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.42578125" style="13" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="32.42578125" style="16" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="40.85546875" style="16" bestFit="1" customWidth="1"/>
@@ -30545,28 +30544,28 @@
         <v>11</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="17" t="s">
         <v>25</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="S1" s="11" t="s">
         <v>27</v>
@@ -30613,28 +30612,28 @@
         <v>3.536</v>
       </c>
       <c r="K2" s="12">
-        <v>7.5</v>
+        <v>1.6</v>
       </c>
       <c r="L2" s="12">
-        <v>11.2</v>
-      </c>
-      <c r="M2" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="N2" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="O2" s="15">
-        <v>289</v>
+        <v>3.6</v>
+      </c>
+      <c r="M2" s="18">
+        <v>3.2389999999999999</v>
+      </c>
+      <c r="N2" s="18">
+        <v>2.5249999999999999</v>
+      </c>
+      <c r="O2" s="18">
+        <v>0.27800000000000002</v>
       </c>
       <c r="P2" s="18">
-        <v>0.27800000000000002</v>
+        <v>6.2E-2</v>
       </c>
       <c r="Q2" s="18">
-        <v>6.2E-2</v>
-      </c>
-      <c r="R2" s="18">
         <v>2.3E-2</v>
+      </c>
+      <c r="R2" s="12">
+        <v>3.8</v>
       </c>
       <c r="S2" s="12">
         <v>3.4</v>
@@ -30681,28 +30680,28 @@
         <v>3.1379999999999999</v>
       </c>
       <c r="K3" s="12">
-        <v>7.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L3" s="12">
-        <v>12.1</v>
-      </c>
-      <c r="M3" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N3" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="O3" s="15">
-        <v>293</v>
+        <v>3.3</v>
+      </c>
+      <c r="M3" s="18">
+        <v>2.8460000000000001</v>
+      </c>
+      <c r="N3" s="18">
+        <v>2.3530000000000002</v>
+      </c>
+      <c r="O3" s="18">
+        <v>0.127</v>
       </c>
       <c r="P3" s="18">
-        <v>0.127</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="Q3" s="18">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="R3" s="18">
         <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="R3" s="12">
+        <v>3.9</v>
       </c>
       <c r="S3" s="12">
         <v>3.4</v>
@@ -30749,28 +30748,28 @@
         <v>3.8580000000000001</v>
       </c>
       <c r="K4" s="12">
-        <v>7.4</v>
+        <v>1.6</v>
       </c>
       <c r="L4" s="12">
-        <v>13.1</v>
-      </c>
-      <c r="M4" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="N4" s="12">
-        <v>3.9</v>
-      </c>
-      <c r="O4" s="15">
-        <v>310</v>
+        <v>3.7</v>
+      </c>
+      <c r="M4" s="18">
+        <v>2.6560000000000001</v>
+      </c>
+      <c r="N4" s="18">
+        <v>2.2669999999999999</v>
+      </c>
+      <c r="O4" s="18">
+        <v>0.13700000000000001</v>
       </c>
       <c r="P4" s="18">
-        <v>0.13700000000000001</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="Q4" s="18">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="R4" s="18">
         <v>1.4E-2</v>
+      </c>
+      <c r="R4" s="12">
+        <v>9.3000000000000007</v>
       </c>
       <c r="S4" s="12">
         <v>4.5</v>
@@ -30817,28 +30816,28 @@
         <v>3.3820000000000001</v>
       </c>
       <c r="K5" s="12">
-        <v>7.9</v>
+        <v>1.8</v>
       </c>
       <c r="L5" s="12">
-        <v>12.9</v>
-      </c>
-      <c r="M5" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="N5" s="12">
-        <v>6.4</v>
-      </c>
-      <c r="O5" s="15">
-        <v>377</v>
+        <v>3.4</v>
+      </c>
+      <c r="M5" s="18">
+        <v>3.3580000000000001</v>
+      </c>
+      <c r="N5" s="18">
+        <v>2.6429999999999998</v>
+      </c>
+      <c r="O5" s="18">
+        <v>0.4</v>
       </c>
       <c r="P5" s="18">
-        <v>0.4</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="Q5" s="18">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="R5" s="18">
         <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R5" s="12">
+        <v>3.2</v>
       </c>
       <c r="S5" s="12">
         <v>3.8</v>
@@ -30885,28 +30884,28 @@
         <v>5.8609999999999998</v>
       </c>
       <c r="K6" s="12">
-        <v>6.7</v>
+        <v>1.6</v>
       </c>
       <c r="L6" s="12">
-        <v>15.4</v>
-      </c>
-      <c r="M6" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="N6" s="12">
-        <v>6.7</v>
-      </c>
-      <c r="O6" s="15">
-        <v>290</v>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M6" s="18">
+        <v>3.2589999999999999</v>
+      </c>
+      <c r="N6" s="18">
+        <v>2.1549999999999998</v>
+      </c>
+      <c r="O6" s="18">
+        <v>0.37</v>
       </c>
       <c r="P6" s="18">
-        <v>0.37</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="Q6" s="18">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="R6" s="18">
         <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="R6" s="12">
+        <v>4.5</v>
       </c>
       <c r="S6" s="12">
         <v>4.5</v>
@@ -30953,28 +30952,28 @@
         <v>3.8650000000000002</v>
       </c>
       <c r="K7" s="12">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="L7" s="12">
-        <v>12.8</v>
-      </c>
-      <c r="M7" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="N7" s="12">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O7" s="15">
-        <v>314</v>
+        <v>3.6</v>
+      </c>
+      <c r="M7" s="18">
+        <v>2.9159999999999999</v>
+      </c>
+      <c r="N7" s="18">
+        <v>2.4529999999999998</v>
+      </c>
+      <c r="O7" s="18">
+        <v>0.187</v>
       </c>
       <c r="P7" s="18">
-        <v>0.187</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="Q7" s="18">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="R7" s="18">
         <v>1.6E-2</v>
+      </c>
+      <c r="R7" s="12">
+        <v>6.3</v>
       </c>
       <c r="S7" s="12">
         <v>4</v>
@@ -31021,28 +31020,28 @@
         <v>11.957000000000001</v>
       </c>
       <c r="K8" s="12">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="L8" s="12">
-        <v>12.4</v>
-      </c>
-      <c r="M8" s="12">
-        <v>3.1</v>
-      </c>
-      <c r="N8" s="12">
-        <v>14.2</v>
-      </c>
-      <c r="O8" s="15">
-        <v>280</v>
+        <v>6.2</v>
+      </c>
+      <c r="M8" s="18">
+        <v>3.0409999999999999</v>
+      </c>
+      <c r="N8" s="18">
+        <v>1.8959999999999999</v>
+      </c>
+      <c r="O8" s="18">
+        <v>0.36499999999999999</v>
       </c>
       <c r="P8" s="18">
-        <v>0.36499999999999999</v>
+        <v>0.112</v>
       </c>
       <c r="Q8" s="18">
-        <v>0.112</v>
-      </c>
-      <c r="R8" s="18">
         <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R8" s="12">
+        <v>9.4</v>
       </c>
       <c r="S8" s="12">
         <v>5.5</v>
@@ -31089,28 +31088,28 @@
         <v>8.2729999999999997</v>
       </c>
       <c r="K9" s="12">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
       <c r="L9" s="12">
-        <v>13.3</v>
-      </c>
-      <c r="M9" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="N9" s="12">
-        <v>8.4</v>
-      </c>
-      <c r="O9" s="15">
-        <v>198</v>
+        <v>3.7</v>
+      </c>
+      <c r="M9" s="18">
+        <v>1.76</v>
+      </c>
+      <c r="N9" s="18">
+        <v>1.319</v>
+      </c>
+      <c r="O9" s="18">
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="P9" s="18">
-        <v>6.9000000000000006E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="Q9" s="18">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="R9" s="18">
         <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="R9" s="12">
+        <v>6.4</v>
       </c>
       <c r="S9" s="12">
         <v>3</v>
@@ -31157,28 +31156,28 @@
         <v>3.8570000000000002</v>
       </c>
       <c r="K10" s="12">
-        <v>7.4</v>
+        <v>2.1</v>
       </c>
       <c r="L10" s="12">
-        <v>13.3</v>
-      </c>
-      <c r="M10" s="12">
-        <v>2.1</v>
-      </c>
-      <c r="N10" s="12">
-        <v>5.3</v>
-      </c>
-      <c r="O10" s="15">
-        <v>305</v>
+        <v>3.6</v>
+      </c>
+      <c r="M10" s="18">
+        <v>2.6850000000000001</v>
+      </c>
+      <c r="N10" s="18">
+        <v>2.0870000000000002</v>
+      </c>
+      <c r="O10" s="18">
+        <v>0.24199999999999999</v>
       </c>
       <c r="P10" s="18">
-        <v>0.24199999999999999</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="Q10" s="18">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="R10" s="18">
         <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="R10" s="12">
+        <v>5.4</v>
       </c>
       <c r="S10" s="12">
         <v>3.6</v>
@@ -31225,28 +31224,28 @@
         <v>15.634</v>
       </c>
       <c r="K11" s="12">
-        <v>7.1</v>
+        <v>4.8</v>
       </c>
       <c r="L11" s="12">
-        <v>10.4</v>
-      </c>
-      <c r="M11" s="12">
-        <v>4.8</v>
-      </c>
-      <c r="N11" s="12">
-        <v>43.8</v>
-      </c>
-      <c r="O11" s="15">
-        <v>181</v>
+        <v>8.6</v>
+      </c>
+      <c r="M11" s="18">
+        <v>2.8130000000000002</v>
+      </c>
+      <c r="N11" s="18">
+        <v>1.9259999999999999</v>
+      </c>
+      <c r="O11" s="18">
+        <v>0.33200000000000002</v>
       </c>
       <c r="P11" s="18">
-        <v>0.33200000000000002</v>
+        <v>0.191</v>
       </c>
       <c r="Q11" s="18">
-        <v>0.191</v>
-      </c>
-      <c r="R11" s="18">
         <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="R11" s="12">
+        <v>14.3</v>
       </c>
       <c r="S11" s="12">
         <v>6.7</v>
@@ -31293,28 +31292,28 @@
         <v>5.1959999999999997</v>
       </c>
       <c r="K12" s="12">
-        <v>6.5</v>
+        <v>1.6</v>
       </c>
       <c r="L12" s="12">
-        <v>12.1</v>
-      </c>
-      <c r="M12" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="N12" s="12">
-        <v>8</v>
-      </c>
-      <c r="O12" s="15">
-        <v>270</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M12" s="18">
+        <v>2.706</v>
+      </c>
+      <c r="N12" s="18">
+        <v>2.3460000000000001</v>
+      </c>
+      <c r="O12" s="18">
+        <v>0.184</v>
       </c>
       <c r="P12" s="18">
-        <v>0.184</v>
+        <v>7.8E-2</v>
       </c>
       <c r="Q12" s="18">
-        <v>7.8E-2</v>
-      </c>
-      <c r="R12" s="18">
         <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R12" s="12">
+        <v>4.7</v>
       </c>
       <c r="S12" s="12">
         <v>3.8</v>
@@ -31361,28 +31360,28 @@
         <v>3.5710000000000002</v>
       </c>
       <c r="K13" s="12">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="L13" s="12">
-        <v>10.9</v>
-      </c>
-      <c r="M13" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="N13" s="12">
-        <v>6.9</v>
-      </c>
-      <c r="O13" s="15">
-        <v>344</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M13" s="18">
+        <v>2.4489999999999998</v>
+      </c>
+      <c r="N13" s="18">
+        <v>1.97</v>
+      </c>
+      <c r="O13" s="18">
+        <v>0.111</v>
       </c>
       <c r="P13" s="18">
-        <v>0.111</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q13" s="18">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R13" s="18">
         <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="R13" s="12">
+        <v>12</v>
       </c>
       <c r="S13" s="12">
         <v>4.0999999999999996</v>
@@ -31429,28 +31428,28 @@
         <v>2.5150000000000001</v>
       </c>
       <c r="K14" s="12">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="L14" s="12">
-        <v>13.1</v>
-      </c>
-      <c r="M14" s="12">
-        <v>3.2</v>
-      </c>
-      <c r="N14" s="12">
-        <v>11.3</v>
-      </c>
-      <c r="O14" s="15">
-        <v>336</v>
+        <v>7.5</v>
+      </c>
+      <c r="M14" s="18">
+        <v>1.877</v>
+      </c>
+      <c r="N14" s="18">
+        <v>1.25</v>
+      </c>
+      <c r="O14" s="18">
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="P14" s="18">
-        <v>3.6999999999999998E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="Q14" s="18">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="R14" s="18">
         <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R14" s="12">
+        <v>38</v>
       </c>
       <c r="S14" s="12">
         <v>5.7</v>
@@ -31497,28 +31496,28 @@
         <v>2.5760000000000001</v>
       </c>
       <c r="K15" s="12">
-        <v>8.1</v>
+        <v>4.7</v>
       </c>
       <c r="L15" s="12">
-        <v>12.1</v>
-      </c>
-      <c r="M15" s="12">
-        <v>4.7</v>
-      </c>
-      <c r="N15" s="12">
-        <v>14.6</v>
-      </c>
-      <c r="O15" s="15">
-        <v>477</v>
+        <v>7.8</v>
+      </c>
+      <c r="M15" s="18">
+        <v>1.5269999999999999</v>
+      </c>
+      <c r="N15" s="18">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="O15" s="18">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P15" s="18">
-        <v>7.0000000000000007E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="Q15" s="18">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="R15" s="18">
         <v>2E-3</v>
+      </c>
+      <c r="R15" s="12">
+        <v>81.3</v>
       </c>
       <c r="S15" s="12">
         <v>5.4</v>
@@ -31565,28 +31564,28 @@
         <v>4.9039999999999999</v>
       </c>
       <c r="K16" s="12">
-        <v>7.7</v>
+        <v>2.4</v>
       </c>
       <c r="L16" s="12">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="M16" s="12">
-        <v>2.4</v>
-      </c>
-      <c r="N16" s="12">
-        <v>10.1</v>
-      </c>
-      <c r="O16" s="15">
-        <v>175</v>
+        <v>7</v>
+      </c>
+      <c r="M16" s="18">
+        <v>2.0779999999999998</v>
+      </c>
+      <c r="N16" s="18">
+        <v>1.617</v>
+      </c>
+      <c r="O16" s="18">
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="P16" s="18">
-        <v>6.7000000000000004E-2</v>
+        <v>0.1</v>
       </c>
       <c r="Q16" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="R16" s="18">
         <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="R16" s="12">
+        <v>19</v>
       </c>
       <c r="S16" s="12">
         <v>5.3</v>
@@ -31633,28 +31632,28 @@
         <v>18.619</v>
       </c>
       <c r="K17" s="12">
-        <v>6.6</v>
+        <v>3.6</v>
       </c>
       <c r="L17" s="12">
-        <v>9.6</v>
-      </c>
-      <c r="M17" s="12">
-        <v>3.6</v>
-      </c>
-      <c r="N17" s="12">
-        <v>32.5</v>
-      </c>
-      <c r="O17" s="15">
-        <v>182</v>
+        <v>7.2</v>
+      </c>
+      <c r="M17" s="18">
+        <v>2.278</v>
+      </c>
+      <c r="N17" s="18">
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="O17" s="18">
+        <v>0.32200000000000001</v>
       </c>
       <c r="P17" s="18">
-        <v>0.32200000000000001</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="Q17" s="18">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="R17" s="18">
         <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R17" s="12">
+        <v>17.8</v>
       </c>
       <c r="S17" s="12">
         <v>6</v>
@@ -31701,28 +31700,28 @@
         <v>10.573</v>
       </c>
       <c r="K18" s="12">
-        <v>6.8</v>
+        <v>1.4</v>
       </c>
       <c r="L18" s="12">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="M18" s="12">
-        <v>1.4</v>
-      </c>
-      <c r="N18" s="12">
-        <v>10.4</v>
-      </c>
-      <c r="O18" s="15">
-        <v>184</v>
+        <v>4.3</v>
+      </c>
+      <c r="M18" s="18">
+        <v>1.7450000000000001</v>
+      </c>
+      <c r="N18" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="O18" s="18">
+        <v>0.1</v>
       </c>
       <c r="P18" s="18">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q18" s="18">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R18" s="18">
         <v>1.4E-2</v>
+      </c>
+      <c r="R18" s="12">
+        <v>8.1999999999999993</v>
       </c>
       <c r="S18" s="12">
         <v>3.5</v>
@@ -31769,28 +31768,28 @@
         <v>8.2550000000000008</v>
       </c>
       <c r="K19" s="12">
-        <v>7.1</v>
+        <v>1.3</v>
       </c>
       <c r="L19" s="12">
-        <v>14.6</v>
-      </c>
-      <c r="M19" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="N19" s="12">
-        <v>9.9</v>
-      </c>
-      <c r="O19" s="15">
-        <v>228</v>
+        <v>4.5</v>
+      </c>
+      <c r="M19" s="18">
+        <v>1.6579999999999999</v>
+      </c>
+      <c r="N19" s="18">
+        <v>1.2230000000000001</v>
+      </c>
+      <c r="O19" s="18">
+        <v>6.3E-2</v>
       </c>
       <c r="P19" s="18">
-        <v>6.3E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="Q19" s="18">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="R19" s="18">
         <v>2.4E-2</v>
+      </c>
+      <c r="R19" s="12">
+        <v>4.3</v>
       </c>
       <c r="S19" s="12">
         <v>3.5</v>
@@ -31837,28 +31836,28 @@
         <v>5.4020000000000001</v>
       </c>
       <c r="K20" s="12">
-        <v>6.7</v>
+        <v>1.3</v>
       </c>
       <c r="L20" s="12">
-        <v>10.3</v>
-      </c>
-      <c r="M20" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="N20" s="12">
-        <v>7.7</v>
-      </c>
-      <c r="O20" s="15">
-        <v>247</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M20" s="18">
+        <v>1.6919999999999999</v>
+      </c>
+      <c r="N20" s="18">
+        <v>1.2030000000000001</v>
+      </c>
+      <c r="O20" s="18">
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="P20" s="18">
-        <v>6.0999999999999999E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="Q20" s="18">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="R20" s="18">
         <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R20" s="12">
+        <v>8</v>
       </c>
       <c r="S20" s="12">
         <v>3.6</v>
@@ -31905,28 +31904,28 @@
         <v>13.159000000000001</v>
       </c>
       <c r="K21" s="12">
-        <v>7.4</v>
+        <v>2.6</v>
       </c>
       <c r="L21" s="12">
-        <v>9.9</v>
-      </c>
-      <c r="M21" s="12">
-        <v>2.6</v>
-      </c>
-      <c r="N21" s="12">
-        <v>15.7</v>
-      </c>
-      <c r="O21" s="15">
-        <v>277</v>
+        <v>6.1</v>
+      </c>
+      <c r="M21" s="18">
+        <v>1.9470000000000001</v>
+      </c>
+      <c r="N21" s="18">
+        <v>1.1839999999999999</v>
+      </c>
+      <c r="O21" s="18">
+        <v>0.12</v>
       </c>
       <c r="P21" s="18">
-        <v>0.12</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="Q21" s="18">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="R21" s="18">
         <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="R21" s="12">
+        <v>21.5</v>
       </c>
       <c r="S21" s="12">
         <v>5.3</v>
@@ -31973,28 +31972,28 @@
         <v>3.931</v>
       </c>
       <c r="K22" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="L22" s="12">
         <v>7.2</v>
       </c>
-      <c r="L22" s="12">
-        <v>10.1</v>
-      </c>
-      <c r="M22" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="N22" s="12">
-        <v>12</v>
-      </c>
-      <c r="O22" s="15">
-        <v>303</v>
+      <c r="M22" s="18">
+        <v>1.796</v>
+      </c>
+      <c r="N22" s="18">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="O22" s="18">
+        <v>0.23799999999999999</v>
       </c>
       <c r="P22" s="18">
-        <v>0.23799999999999999</v>
+        <v>0.155</v>
       </c>
       <c r="Q22" s="18">
-        <v>0.155</v>
-      </c>
-      <c r="R22" s="18">
         <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="R22" s="12">
+        <v>18.7</v>
       </c>
       <c r="S22" s="12">
         <v>5.8</v>
@@ -32041,28 +32040,28 @@
         <v>7.2309999999999999</v>
       </c>
       <c r="K23" s="12">
-        <v>6.9</v>
+        <v>3.2</v>
       </c>
       <c r="L23" s="12">
-        <v>6.7</v>
-      </c>
-      <c r="M23" s="12">
-        <v>3.2</v>
-      </c>
-      <c r="N23" s="12">
-        <v>15.3</v>
-      </c>
-      <c r="O23" s="15">
-        <v>255</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M23" s="18">
+        <v>2.5030000000000001</v>
+      </c>
+      <c r="N23" s="18">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="O23" s="18">
+        <v>0.32300000000000001</v>
       </c>
       <c r="P23" s="18">
-        <v>0.32300000000000001</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="Q23" s="18">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="R23" s="18">
         <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="R23" s="12">
+        <v>8.6</v>
       </c>
       <c r="S23" s="12">
         <v>6.4</v>
@@ -32109,28 +32108,28 @@
         <v>10.646000000000001</v>
       </c>
       <c r="K24" s="12">
-        <v>6.9</v>
+        <v>2.9</v>
       </c>
       <c r="L24" s="12">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M24" s="12">
-        <v>2.9</v>
-      </c>
-      <c r="N24" s="12">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="O24" s="15">
-        <v>231</v>
+      <c r="M24" s="18">
+        <v>2.4790000000000001</v>
+      </c>
+      <c r="N24" s="18">
+        <v>1.2709999999999999</v>
+      </c>
+      <c r="O24" s="18">
+        <v>0.28199999999999997</v>
       </c>
       <c r="P24" s="18">
-        <v>0.28199999999999997</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="Q24" s="18">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="R24" s="18">
         <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="R24" s="12">
+        <v>7.2</v>
       </c>
       <c r="S24" s="12">
         <v>7.4</v>
@@ -32177,28 +32176,28 @@
         <v>7.5979999999999999</v>
       </c>
       <c r="K25" s="12">
-        <v>6.8</v>
+        <v>2.8</v>
       </c>
       <c r="L25" s="12">
-        <v>7.1</v>
-      </c>
-      <c r="M25" s="12">
-        <v>2.8</v>
-      </c>
-      <c r="N25" s="12">
-        <v>9.9</v>
-      </c>
-      <c r="O25" s="15">
-        <v>215</v>
+        <v>7</v>
+      </c>
+      <c r="M25" s="18">
+        <v>2.444</v>
+      </c>
+      <c r="N25" s="18">
+        <v>1.3160000000000001</v>
+      </c>
+      <c r="O25" s="18">
+        <v>0.32800000000000001</v>
       </c>
       <c r="P25" s="18">
-        <v>0.32800000000000001</v>
+        <v>0.111</v>
       </c>
       <c r="Q25" s="18">
-        <v>0.111</v>
-      </c>
-      <c r="R25" s="18">
         <v>4.7E-2</v>
+      </c>
+      <c r="R25" s="12">
+        <v>7.5</v>
       </c>
       <c r="S25" s="12">
         <v>6.6</v>
@@ -32245,28 +32244,28 @@
         <v>5.8330000000000002</v>
       </c>
       <c r="K26" s="12">
-        <v>6.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L26" s="12">
-        <v>6.2</v>
-      </c>
-      <c r="M26" s="12">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="N26" s="12">
-        <v>10.8</v>
-      </c>
-      <c r="O26" s="15">
-        <v>261</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M26" s="18">
+        <v>2.1749999999999998</v>
+      </c>
+      <c r="N26" s="18">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="O26" s="18">
+        <v>0.16300000000000001</v>
       </c>
       <c r="P26" s="18">
-        <v>0.16300000000000001</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="Q26" s="18">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="R26" s="18">
         <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="R26" s="12">
+        <v>10.1</v>
       </c>
       <c r="S26" s="12">
         <v>6.9</v>
@@ -32313,28 +32312,28 @@
         <v>4.3380000000000001</v>
       </c>
       <c r="K27" s="12">
-        <v>7.1</v>
+        <v>2.1</v>
       </c>
       <c r="L27" s="12">
-        <v>6.5</v>
-      </c>
-      <c r="M27" s="12">
-        <v>2.1</v>
-      </c>
-      <c r="N27" s="12">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="O27" s="15">
-        <v>252</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M27" s="18">
+        <v>2.2839999999999998</v>
+      </c>
+      <c r="N27" s="18">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="O27" s="18">
+        <v>0.151</v>
       </c>
       <c r="P27" s="18">
-        <v>0.151</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="Q27" s="18">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="R27" s="18">
         <v>6.3E-2</v>
+      </c>
+      <c r="R27" s="12">
+        <v>4.9000000000000004</v>
       </c>
       <c r="S27" s="12">
         <v>7.5</v>
@@ -32381,28 +32380,28 @@
         <v>36.968000000000004</v>
       </c>
       <c r="K28" s="12">
-        <v>6.3</v>
+        <v>2.6</v>
       </c>
       <c r="L28" s="12">
-        <v>7.9</v>
-      </c>
-      <c r="M28" s="12">
-        <v>2.6</v>
-      </c>
-      <c r="N28" s="12">
-        <v>20</v>
-      </c>
-      <c r="O28" s="15">
-        <v>154</v>
+        <v>5.8</v>
+      </c>
+      <c r="M28" s="18">
+        <v>2.1669999999999998</v>
+      </c>
+      <c r="N28" s="18">
+        <v>1.3879999999999999</v>
+      </c>
+      <c r="O28" s="18">
+        <v>0.16400000000000001</v>
       </c>
       <c r="P28" s="18">
-        <v>0.16400000000000001</v>
+        <v>0.111</v>
       </c>
       <c r="Q28" s="18">
-        <v>0.111</v>
-      </c>
-      <c r="R28" s="18">
         <v>6.3E-2</v>
+      </c>
+      <c r="R28" s="12">
+        <v>4.0999999999999996</v>
       </c>
       <c r="S28" s="12">
         <v>4.9000000000000004</v>
@@ -32449,28 +32448,28 @@
         <v>11.148999999999999</v>
       </c>
       <c r="K29" s="12">
-        <v>7.2</v>
+        <v>2.1</v>
       </c>
       <c r="L29" s="12">
-        <v>6.5</v>
-      </c>
-      <c r="M29" s="12">
-        <v>2.1</v>
-      </c>
-      <c r="N29" s="12">
-        <v>9.9</v>
-      </c>
-      <c r="O29" s="15">
-        <v>176</v>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M29" s="18">
+        <v>2.2429999999999999</v>
+      </c>
+      <c r="N29" s="18">
+        <v>1.9239999999999999</v>
+      </c>
+      <c r="O29" s="18">
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="P29" s="18">
-        <v>8.1000000000000003E-2</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="Q29" s="18">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="R29" s="18">
         <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="R29" s="12">
+        <v>5.0999999999999996</v>
       </c>
       <c r="S29" s="12">
         <v>4.3</v>
@@ -32517,28 +32516,28 @@
         <v>9.8930000000000007</v>
       </c>
       <c r="K30" s="12">
-        <v>7.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L30" s="12">
-        <v>7.6</v>
-      </c>
-      <c r="M30" s="12">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="N30" s="12">
-        <v>8.5</v>
-      </c>
-      <c r="O30" s="15">
-        <v>204</v>
+        <v>4.7</v>
+      </c>
+      <c r="M30" s="18">
+        <v>1.619</v>
+      </c>
+      <c r="N30" s="18">
+        <v>1.127</v>
+      </c>
+      <c r="O30" s="18">
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="P30" s="18">
-        <v>4.8000000000000001E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="Q30" s="18">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="R30" s="18">
         <v>0.06</v>
+      </c>
+      <c r="R30" s="12">
+        <v>5.9</v>
       </c>
       <c r="S30" s="12">
         <v>4.3</v>
@@ -32585,28 +32584,28 @@
         <v>5.2169999999999996</v>
       </c>
       <c r="K31" s="12">
-        <v>7.3</v>
+        <v>2.6</v>
       </c>
       <c r="L31" s="12">
-        <v>9.6</v>
-      </c>
-      <c r="M31" s="12">
-        <v>2.6</v>
-      </c>
-      <c r="N31" s="12">
-        <v>8.9</v>
-      </c>
-      <c r="O31" s="15">
-        <v>281</v>
+        <v>7</v>
+      </c>
+      <c r="M31" s="18">
+        <v>1.379</v>
+      </c>
+      <c r="N31" s="18">
+        <v>0.752</v>
+      </c>
+      <c r="O31" s="18">
+        <v>6.2E-2</v>
       </c>
       <c r="P31" s="18">
-        <v>6.2E-2</v>
+        <v>0.121</v>
       </c>
       <c r="Q31" s="18">
-        <v>0.121</v>
-      </c>
-      <c r="R31" s="18">
         <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="R31" s="12">
+        <v>67.8</v>
       </c>
       <c r="S31" s="12">
         <v>8.1999999999999993</v>
@@ -32653,28 +32652,28 @@
         <v>3.9220000000000002</v>
       </c>
       <c r="K32" s="12">
-        <v>7.2</v>
+        <v>4.3</v>
       </c>
       <c r="L32" s="12">
-        <v>7.9</v>
-      </c>
-      <c r="M32" s="12">
-        <v>4.3</v>
-      </c>
-      <c r="N32" s="12">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="O32" s="15">
-        <v>293</v>
+        <v>8.1</v>
+      </c>
+      <c r="M32" s="18">
+        <v>1.244</v>
+      </c>
+      <c r="N32" s="18">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="O32" s="18">
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="P32" s="18">
-        <v>3.7999999999999999E-2</v>
+        <v>0.157</v>
       </c>
       <c r="Q32" s="18">
-        <v>0.157</v>
-      </c>
-      <c r="R32" s="18">
         <v>2.7E-2</v>
+      </c>
+      <c r="R32" s="12">
+        <v>55.9</v>
       </c>
       <c r="S32" s="12">
         <v>6.4</v>
@@ -32721,28 +32720,28 @@
         <v>3.169</v>
       </c>
       <c r="K33" s="12">
-        <v>7.1</v>
+        <v>3.4</v>
       </c>
       <c r="L33" s="12">
-        <v>7.5</v>
-      </c>
-      <c r="M33" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="N33" s="12">
-        <v>10.9</v>
-      </c>
-      <c r="O33" s="15">
-        <v>234</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M33" s="18">
+        <v>1.4630000000000001</v>
+      </c>
+      <c r="N33" s="18">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="O33" s="18">
+        <v>3.9E-2</v>
       </c>
       <c r="P33" s="18">
-        <v>3.9E-2</v>
+        <v>0.12</v>
       </c>
       <c r="Q33" s="18">
-        <v>0.12</v>
-      </c>
-      <c r="R33" s="18">
         <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="R33" s="12">
+        <v>14.4</v>
       </c>
       <c r="S33" s="12">
         <v>6.5</v>
@@ -32789,28 +32788,28 @@
         <v>13.172000000000001</v>
       </c>
       <c r="K34" s="12">
-        <v>6.8</v>
+        <v>1.9</v>
       </c>
       <c r="L34" s="12">
-        <v>7.6</v>
-      </c>
-      <c r="M34" s="12">
-        <v>1.9</v>
-      </c>
-      <c r="N34" s="12">
-        <v>6.7</v>
-      </c>
-      <c r="O34" s="15">
-        <v>271</v>
+        <v>6.5</v>
+      </c>
+      <c r="M34" s="18">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="N34" s="18">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="O34" s="18">
+        <v>7.8E-2</v>
       </c>
       <c r="P34" s="18">
-        <v>7.8E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="Q34" s="18">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="R34" s="18">
         <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="R34" s="12">
+        <v>12.4</v>
       </c>
       <c r="S34" s="12">
         <v>5.3</v>
@@ -32857,28 +32856,28 @@
         <v>1.873</v>
       </c>
       <c r="K35" s="12">
-        <v>7.3</v>
+        <v>1.5</v>
       </c>
       <c r="L35" s="12">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="M35" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="N35" s="12">
-        <v>4.7</v>
-      </c>
-      <c r="O35" s="15">
-        <v>459</v>
+        <v>6.7</v>
+      </c>
+      <c r="M35" s="18">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="N35" s="18">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="O35" s="18">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="P35" s="18">
-        <v>6.4000000000000001E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="Q35" s="18">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="R35" s="18">
         <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="R35" s="12">
+        <v>9.8000000000000007</v>
       </c>
       <c r="S35" s="12">
         <v>5.3</v>
@@ -32925,28 +32924,28 @@
         <v>9.1479999999999997</v>
       </c>
       <c r="K36" s="12">
-        <v>6.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L36" s="12">
-        <v>8.6</v>
-      </c>
-      <c r="M36" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N36" s="12">
-        <v>8.4</v>
-      </c>
-      <c r="O36" s="15">
-        <v>172</v>
+        <v>6.1</v>
+      </c>
+      <c r="M36" s="18">
+        <v>1.2270000000000001</v>
+      </c>
+      <c r="N36" s="18">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="O36" s="18">
+        <v>0.13800000000000001</v>
       </c>
       <c r="P36" s="18">
-        <v>0.13800000000000001</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="Q36" s="18">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="R36" s="18">
         <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="R36" s="12">
+        <v>4.4000000000000004</v>
       </c>
       <c r="S36" s="12">
         <v>4.8</v>
@@ -32993,28 +32992,28 @@
         <v>30.812999999999999</v>
       </c>
       <c r="K37" s="12">
-        <v>7.4</v>
+        <v>2.5</v>
       </c>
       <c r="L37" s="12">
-        <v>6</v>
-      </c>
-      <c r="M37" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="N37" s="12">
-        <v>13.9</v>
-      </c>
-      <c r="O37" s="15">
-        <v>192</v>
+        <v>6.5</v>
+      </c>
+      <c r="M37" s="18">
+        <v>1.48</v>
+      </c>
+      <c r="N37" s="18">
+        <v>0.82</v>
+      </c>
+      <c r="O37" s="18">
+        <v>0.32100000000000001</v>
       </c>
       <c r="P37" s="18">
-        <v>0.32100000000000001</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="Q37" s="18">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="R37" s="18">
         <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="R37" s="12">
+        <v>14.2</v>
       </c>
       <c r="S37" s="12">
         <v>5.8</v>
@@ -33061,28 +33060,28 @@
         <v>11.782999999999999</v>
       </c>
       <c r="K38" s="12">
-        <v>7.3</v>
+        <v>1.6</v>
       </c>
       <c r="L38" s="12">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="M38" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="N38" s="12">
-        <v>8.1</v>
-      </c>
-      <c r="O38" s="15">
-        <v>216</v>
+        <v>6.9</v>
+      </c>
+      <c r="M38" s="18">
+        <v>1.393</v>
+      </c>
+      <c r="N38" s="18">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="O38" s="18">
+        <v>0.11899999999999999</v>
       </c>
       <c r="P38" s="18">
-        <v>0.11899999999999999</v>
+        <v>0.107</v>
       </c>
       <c r="Q38" s="18">
-        <v>0.107</v>
-      </c>
-      <c r="R38" s="18">
         <v>0.06</v>
+      </c>
+      <c r="R38" s="12">
+        <v>4.9000000000000004</v>
       </c>
       <c r="S38" s="12">
         <v>5.0999999999999996</v>
@@ -33129,28 +33128,28 @@
         <v>14.702</v>
       </c>
       <c r="K39" s="12">
-        <v>7.2</v>
+        <v>1.4</v>
       </c>
       <c r="L39" s="12">
-        <v>10.5</v>
-      </c>
-      <c r="M39" s="12">
-        <v>1.4</v>
-      </c>
-      <c r="N39" s="12">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="O39" s="15">
-        <v>187</v>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M39" s="18">
+        <v>2.1269999999999998</v>
+      </c>
+      <c r="N39" s="18">
+        <v>1.5449999999999999</v>
+      </c>
+      <c r="O39" s="18">
+        <v>0.128</v>
       </c>
       <c r="P39" s="18">
-        <v>0.128</v>
+        <v>0.108</v>
       </c>
       <c r="Q39" s="18">
-        <v>0.108</v>
-      </c>
-      <c r="R39" s="18">
         <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="R39" s="12">
+        <v>1.1000000000000001</v>
       </c>
       <c r="S39" s="12">
         <v>4.4000000000000004</v>
@@ -33197,28 +33196,28 @@
         <v>7.7990000000000004</v>
       </c>
       <c r="K40" s="12">
-        <v>7.4</v>
+        <v>1.5</v>
       </c>
       <c r="L40" s="12">
-        <v>8</v>
-      </c>
-      <c r="M40" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="N40" s="12">
-        <v>4.3</v>
-      </c>
-      <c r="O40" s="15">
-        <v>222</v>
+        <v>3</v>
+      </c>
+      <c r="M40" s="18">
+        <v>1.899</v>
+      </c>
+      <c r="N40" s="18">
+        <v>1.3220000000000001</v>
+      </c>
+      <c r="O40" s="18">
+        <v>0.08</v>
       </c>
       <c r="P40" s="18">
-        <v>0.08</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="Q40" s="18">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="R40" s="18">
         <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="R40" s="12">
+        <v>11.3</v>
       </c>
       <c r="S40" s="12">
         <v>3.9</v>
@@ -33265,28 +33264,28 @@
         <v>12.199</v>
       </c>
       <c r="K41" s="12">
-        <v>6.8</v>
+        <v>1.5</v>
       </c>
       <c r="L41" s="12">
-        <v>8</v>
-      </c>
-      <c r="M41" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="N41" s="12">
-        <v>9.4</v>
-      </c>
-      <c r="O41" s="15">
-        <v>216</v>
+        <v>6.2</v>
+      </c>
+      <c r="M41" s="18">
+        <v>2.633</v>
+      </c>
+      <c r="N41" s="18">
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="O41" s="18">
+        <v>9.4E-2</v>
       </c>
       <c r="P41" s="18">
-        <v>9.4E-2</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="Q41" s="18">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="R41" s="18">
         <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="R41" s="12">
+        <v>5.3</v>
       </c>
       <c r="S41" s="12">
         <v>4.7</v>
@@ -33333,28 +33332,28 @@
         <v>15.922000000000001</v>
       </c>
       <c r="K42" s="12">
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="L42" s="12">
-        <v>7.3</v>
-      </c>
-      <c r="M42" s="12">
-        <v>1</v>
-      </c>
-      <c r="N42" s="12">
-        <v>7.7</v>
-      </c>
-      <c r="O42" s="15">
-        <v>185</v>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M42" s="18">
+        <v>1.9219999999999999</v>
+      </c>
+      <c r="N42" s="18">
+        <v>1.573</v>
+      </c>
+      <c r="O42" s="18">
+        <v>6.2E-2</v>
       </c>
       <c r="P42" s="18">
-        <v>6.2E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="Q42" s="18">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="R42" s="18">
         <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="R42" s="12">
+        <v>2.2999999999999998</v>
       </c>
       <c r="S42" s="12">
         <v>3.8</v>
@@ -33401,28 +33400,28 @@
         <v>20.792999999999999</v>
       </c>
       <c r="K43" s="12">
-        <v>7.2</v>
+        <v>1.3</v>
       </c>
       <c r="L43" s="12">
-        <v>10.3</v>
-      </c>
-      <c r="M43" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="N43" s="12">
-        <v>13.1</v>
-      </c>
-      <c r="O43" s="15">
-        <v>151</v>
+        <v>5.7</v>
+      </c>
+      <c r="M43" s="18">
+        <v>1.8360000000000001</v>
+      </c>
+      <c r="N43" s="18">
+        <v>1.131</v>
+      </c>
+      <c r="O43" s="18">
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="P43" s="18">
-        <v>8.6999999999999994E-2</v>
+        <v>0.107</v>
       </c>
       <c r="Q43" s="18">
-        <v>0.107</v>
-      </c>
-      <c r="R43" s="18">
         <v>5.5E-2</v>
+      </c>
+      <c r="R43" s="12">
+        <v>4</v>
       </c>
       <c r="S43" s="12">
         <v>4</v>
@@ -33469,28 +33468,28 @@
         <v>7.2220000000000004</v>
       </c>
       <c r="K44" s="12">
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="L44" s="12">
-        <v>9</v>
-      </c>
-      <c r="M44" s="12">
-        <v>1</v>
-      </c>
-      <c r="N44" s="12">
-        <v>4</v>
-      </c>
-      <c r="O44" s="15">
-        <v>207</v>
+        <v>3.8</v>
+      </c>
+      <c r="M44" s="18">
+        <v>2.0630000000000002</v>
+      </c>
+      <c r="N44" s="18">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="O44" s="18">
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="P44" s="18">
-        <v>6.0999999999999999E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="Q44" s="18">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="R44" s="18">
         <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="R44" s="12">
+        <v>3.5</v>
       </c>
       <c r="S44" s="12">
         <v>3</v>
@@ -33537,28 +33536,28 @@
         <v>4.556</v>
       </c>
       <c r="K45" s="12">
-        <v>7.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L45" s="12">
-        <v>10.1</v>
-      </c>
-      <c r="M45" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N45" s="12">
-        <v>3.7</v>
-      </c>
-      <c r="O45" s="15">
-        <v>206</v>
+        <v>4</v>
+      </c>
+      <c r="M45" s="18">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="N45" s="18">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="O45" s="18">
+        <v>0.105</v>
       </c>
       <c r="P45" s="18">
-        <v>0.105</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="Q45" s="18">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="R45" s="18">
         <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R45" s="12">
+        <v>3.6</v>
       </c>
       <c r="S45" s="12">
         <v>3.4</v>
@@ -33605,28 +33604,28 @@
         <v>4.2530000000000001</v>
       </c>
       <c r="K46" s="12">
-        <v>7.4</v>
+        <v>1</v>
       </c>
       <c r="L46" s="12">
-        <v>10.8</v>
-      </c>
-      <c r="M46" s="12">
-        <v>1</v>
-      </c>
-      <c r="N46" s="12">
-        <v>3</v>
-      </c>
-      <c r="O46" s="15">
-        <v>296</v>
+        <v>3.9</v>
+      </c>
+      <c r="M46" s="18">
+        <v>2.194</v>
+      </c>
+      <c r="N46" s="18">
+        <v>1.66</v>
+      </c>
+      <c r="O46" s="18">
+        <v>3.1E-2</v>
       </c>
       <c r="P46" s="18">
-        <v>3.1E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="Q46" s="18">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="R46" s="18">
         <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="R46" s="12">
+        <v>4.3</v>
       </c>
       <c r="S46" s="12">
         <v>3.1</v>
@@ -33673,28 +33672,28 @@
         <v>3.3130000000000002</v>
       </c>
       <c r="K47" s="12">
-        <v>7.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L47" s="12">
-        <v>10</v>
-      </c>
-      <c r="M47" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N47" s="12">
-        <v>3.9</v>
-      </c>
-      <c r="O47" s="15">
-        <v>344</v>
+        <v>4.2</v>
+      </c>
+      <c r="M47" s="18">
+        <v>2.1930000000000001</v>
+      </c>
+      <c r="N47" s="18">
+        <v>1.6359999999999999</v>
+      </c>
+      <c r="O47" s="18">
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="P47" s="18">
-        <v>3.6999999999999998E-2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="Q47" s="18">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="R47" s="18">
         <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="R47" s="12">
+        <v>6.5</v>
       </c>
       <c r="S47" s="12">
         <v>4.2</v>
@@ -33741,28 +33740,28 @@
         <v>3.2370000000000001</v>
       </c>
       <c r="K48" s="12">
-        <v>7.8</v>
+        <v>1.7</v>
       </c>
       <c r="L48" s="12">
-        <v>9.4</v>
-      </c>
-      <c r="M48" s="12">
-        <v>1.7</v>
-      </c>
-      <c r="N48" s="12">
-        <v>4</v>
-      </c>
-      <c r="O48" s="15">
-        <v>418</v>
+        <v>5.2</v>
+      </c>
+      <c r="M48" s="18">
+        <v>2.1280000000000001</v>
+      </c>
+      <c r="N48" s="18">
+        <v>1.4890000000000001</v>
+      </c>
+      <c r="O48" s="18">
+        <v>0.1</v>
       </c>
       <c r="P48" s="18">
-        <v>0.1</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="Q48" s="18">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="R48" s="18">
         <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="R48" s="12">
+        <v>13.4</v>
       </c>
       <c r="S48" s="12">
         <v>4.8</v>
@@ -33809,28 +33808,28 @@
         <v>2.9980000000000002</v>
       </c>
       <c r="K49" s="12">
-        <v>7.7</v>
+        <v>2</v>
       </c>
       <c r="L49" s="12">
-        <v>12.6</v>
-      </c>
-      <c r="M49" s="12">
-        <v>2</v>
-      </c>
-      <c r="N49" s="12">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O49" s="15">
-        <v>350</v>
+        <v>4.7</v>
+      </c>
+      <c r="M49" s="18">
+        <v>2.3780000000000001</v>
+      </c>
+      <c r="N49" s="18">
+        <v>1.9019999999999999</v>
+      </c>
+      <c r="O49" s="18">
+        <v>2.7E-2</v>
       </c>
       <c r="P49" s="18">
-        <v>2.7E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="Q49" s="18">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="R49" s="18">
         <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="R49" s="12">
+        <v>20.3</v>
       </c>
       <c r="S49" s="12">
         <v>4.0999999999999996</v>
@@ -33877,28 +33876,28 @@
         <v>3.0169999999999999</v>
       </c>
       <c r="K50" s="12">
-        <v>7.6</v>
+        <v>1.3</v>
       </c>
       <c r="L50" s="12">
-        <v>11.3</v>
-      </c>
-      <c r="M50" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="N50" s="12">
-        <v>2.9</v>
-      </c>
-      <c r="O50" s="15">
-        <v>389</v>
+        <v>3.6</v>
+      </c>
+      <c r="M50" s="18">
+        <v>2.4689999999999999</v>
+      </c>
+      <c r="N50" s="18">
+        <v>2.0390000000000001</v>
+      </c>
+      <c r="O50" s="18">
+        <v>0.06</v>
       </c>
       <c r="P50" s="18">
-        <v>0.06</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="Q50" s="18">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="R50" s="18">
         <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R50" s="12">
+        <v>9</v>
       </c>
       <c r="S50" s="12">
         <v>3.2</v>
@@ -33945,28 +33944,28 @@
         <v>3.1509999999999998</v>
       </c>
       <c r="K51" s="12">
-        <v>7.8</v>
+        <v>1.3</v>
       </c>
       <c r="L51" s="12">
-        <v>12.4</v>
-      </c>
-      <c r="M51" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="N51" s="12">
-        <v>3.1</v>
-      </c>
-      <c r="O51" s="15">
-        <v>358</v>
+        <v>3.7</v>
+      </c>
+      <c r="M51" s="18">
+        <v>2.6850000000000001</v>
+      </c>
+      <c r="N51" s="18">
+        <v>2.1640000000000001</v>
+      </c>
+      <c r="O51" s="18">
+        <v>0.14799999999999999</v>
       </c>
       <c r="P51" s="18">
-        <v>0.14799999999999999</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="Q51" s="18">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="R51" s="18">
         <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R51" s="12">
+        <v>7.1</v>
       </c>
       <c r="S51" s="12">
         <v>3.2</v>
@@ -34013,28 +34012,28 @@
         <v>3.0870000000000002</v>
       </c>
       <c r="K52" s="12">
-        <v>8.1999999999999993</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L52" s="12">
-        <v>12.3</v>
-      </c>
-      <c r="M52" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N52" s="12">
-        <v>2.8</v>
-      </c>
-      <c r="O52" s="15">
-        <v>339</v>
+        <v>3.3</v>
+      </c>
+      <c r="M52" s="18">
+        <v>2.5030000000000001</v>
+      </c>
+      <c r="N52" s="18">
+        <v>2.0230000000000001</v>
+      </c>
+      <c r="O52" s="18">
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="P52" s="18">
-        <v>3.5000000000000003E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="Q52" s="18">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="R52" s="18">
         <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R52" s="12">
+        <v>9.8000000000000007</v>
       </c>
       <c r="S52" s="12">
         <v>3</v>
@@ -34081,28 +34080,28 @@
         <v>4.4989999999999997</v>
       </c>
       <c r="K53" s="12">
-        <v>7.5</v>
+        <v>1.6</v>
       </c>
       <c r="L53" s="12">
-        <v>13.1</v>
-      </c>
-      <c r="M53" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="N53" s="12">
-        <v>4.3</v>
-      </c>
-      <c r="O53" s="15">
-        <v>337</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M53" s="18">
+        <v>2.633</v>
+      </c>
+      <c r="N53" s="18">
+        <v>2.0470000000000002</v>
+      </c>
+      <c r="O53" s="18">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="P53" s="18">
-        <v>6.6000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="Q53" s="18">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="R53" s="18">
         <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="R53" s="12">
+        <v>8.4</v>
       </c>
       <c r="S53" s="12">
         <v>4.4000000000000004</v>
@@ -34149,28 +34148,28 @@
         <v>3.8849999999999998</v>
       </c>
       <c r="K54" s="12">
-        <v>7.2</v>
+        <v>1.7</v>
       </c>
       <c r="L54" s="12">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="M54" s="12">
-        <v>1.7</v>
-      </c>
-      <c r="N54" s="12">
-        <v>4</v>
-      </c>
-      <c r="O54" s="15">
-        <v>298</v>
+        <v>4.3</v>
+      </c>
+      <c r="M54" s="18">
+        <v>2.9609999999999999</v>
+      </c>
+      <c r="N54" s="18">
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="O54" s="18">
+        <v>0.29499999999999998</v>
       </c>
       <c r="P54" s="18">
-        <v>0.29499999999999998</v>
+        <v>0.09</v>
       </c>
       <c r="Q54" s="18">
-        <v>0.09</v>
-      </c>
-      <c r="R54" s="18">
         <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="R54" s="12">
+        <v>6.8</v>
       </c>
       <c r="S54" s="12">
         <v>3.7</v>
@@ -34217,28 +34216,28 @@
         <v>3.2330000000000001</v>
       </c>
       <c r="K55" s="12">
-        <v>7.1</v>
+        <v>1.5</v>
       </c>
       <c r="L55" s="12">
-        <v>13.2</v>
-      </c>
-      <c r="M55" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="N55" s="12">
-        <v>5.9</v>
-      </c>
-      <c r="O55" s="15">
-        <v>319</v>
+        <v>4.7</v>
+      </c>
+      <c r="M55" s="18">
+        <v>3.0350000000000001</v>
+      </c>
+      <c r="N55" s="18">
+        <v>2.0409999999999999</v>
+      </c>
+      <c r="O55" s="18">
+        <v>0.36099999999999999</v>
       </c>
       <c r="P55" s="18">
-        <v>0.36099999999999999</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="Q55" s="18">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="R55" s="18">
         <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="R55" s="12">
+        <v>14.2</v>
       </c>
       <c r="S55" s="12">
         <v>3.3</v>
@@ -34285,28 +34284,28 @@
         <v>2.84</v>
       </c>
       <c r="K56" s="12">
-        <v>8.1</v>
+        <v>1</v>
       </c>
       <c r="L56" s="12">
-        <v>10.3</v>
-      </c>
-      <c r="M56" s="12">
-        <v>1</v>
-      </c>
-      <c r="N56" s="12">
-        <v>3.5</v>
-      </c>
-      <c r="O56" s="15">
-        <v>322</v>
+        <v>4.5</v>
+      </c>
+      <c r="M56" s="18">
+        <v>2.605</v>
+      </c>
+      <c r="N56" s="18">
+        <v>2.4409999999999998</v>
+      </c>
+      <c r="O56" s="18">
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="P56" s="18">
-        <v>8.5000000000000006E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="Q56" s="18">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="R56" s="18">
         <v>1.2E-2</v>
+      </c>
+      <c r="R56" s="12">
+        <v>3.8</v>
       </c>
       <c r="S56" s="12">
         <v>2.2999999999999998</v>
@@ -34353,28 +34352,28 @@
         <v>2.9609999999999999</v>
       </c>
       <c r="K57" s="12">
-        <v>7</v>
+        <v>1.6</v>
       </c>
       <c r="L57" s="12">
-        <v>13.4</v>
-      </c>
-      <c r="M57" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="N57" s="12">
-        <v>3.2</v>
-      </c>
-      <c r="O57" s="15">
-        <v>368</v>
+        <v>3.6</v>
+      </c>
+      <c r="M57" s="18">
+        <v>2.9889999999999999</v>
+      </c>
+      <c r="N57" s="18">
+        <v>2.528</v>
+      </c>
+      <c r="O57" s="18">
+        <v>0.153</v>
       </c>
       <c r="P57" s="18">
-        <v>0.153</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="Q57" s="18">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="R57" s="18">
         <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="R57" s="12">
+        <v>4.2</v>
       </c>
       <c r="S57" s="12">
         <v>3.8</v>
@@ -34421,28 +34420,28 @@
         <v>4.274</v>
       </c>
       <c r="K58" s="12">
-        <v>8.1999999999999993</v>
+        <v>1.3</v>
       </c>
       <c r="L58" s="12">
-        <v>13</v>
-      </c>
-      <c r="M58" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="N58" s="12">
         <v>3.8</v>
       </c>
-      <c r="O58" s="15">
-        <v>299</v>
+      <c r="M58" s="18">
+        <v>3.59</v>
+      </c>
+      <c r="N58" s="18">
+        <v>2.9820000000000002</v>
+      </c>
+      <c r="O58" s="18">
+        <v>0.39</v>
       </c>
       <c r="P58" s="18">
-        <v>0.39</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="Q58" s="18">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="R58" s="18">
         <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="R58" s="12">
+        <v>4.2</v>
       </c>
       <c r="S58" s="12">
         <v>3.3</v>
@@ -34489,28 +34488,28 @@
         <v>3.339</v>
       </c>
       <c r="K59" s="12">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="L59" s="12">
-        <v>12.2</v>
-      </c>
-      <c r="M59" s="12">
-        <v>1.4</v>
-      </c>
-      <c r="N59" s="12">
-        <v>3.8</v>
-      </c>
-      <c r="O59" s="15">
-        <v>332</v>
+        <v>4.3</v>
+      </c>
+      <c r="M59" s="18">
+        <v>2.8010000000000002</v>
+      </c>
+      <c r="N59" s="18">
+        <v>2.4830000000000001</v>
+      </c>
+      <c r="O59" s="18">
+        <v>0.126</v>
       </c>
       <c r="P59" s="18">
-        <v>0.126</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="Q59" s="18">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="R59" s="18">
         <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="R59" s="12">
+        <v>6.3</v>
       </c>
       <c r="S59" s="12">
         <v>3.3</v>
@@ -34557,28 +34556,28 @@
         <v>3.0169999999999999</v>
       </c>
       <c r="K60" s="12">
-        <v>8.1999999999999993</v>
+        <v>1.5</v>
       </c>
       <c r="L60" s="12">
-        <v>14</v>
-      </c>
-      <c r="M60" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="N60" s="12">
+        <v>3.9</v>
+      </c>
+      <c r="M60" s="18">
+        <v>2.7890000000000001</v>
+      </c>
+      <c r="N60" s="18">
+        <v>2.6259999999999999</v>
+      </c>
+      <c r="O60" s="18">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="P60" s="18">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="Q60" s="18">
+        <v>4.7E-2</v>
+      </c>
+      <c r="R60" s="12">
         <v>4.9000000000000004</v>
-      </c>
-      <c r="O60" s="15">
-        <v>295</v>
-      </c>
-      <c r="P60" s="18">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="Q60" s="18">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="R60" s="18">
-        <v>4.7E-2</v>
       </c>
       <c r="S60" s="12">
         <v>3.3</v>
@@ -34625,28 +34624,28 @@
         <v>2.883</v>
       </c>
       <c r="K61" s="12">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="L61" s="12">
-        <v>10.8</v>
-      </c>
-      <c r="M61" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="N61" s="12">
-        <v>10.3</v>
-      </c>
-      <c r="O61" s="15">
-        <v>356</v>
+        <v>5.6</v>
+      </c>
+      <c r="M61" s="18">
+        <v>2.823</v>
+      </c>
+      <c r="N61" s="18">
+        <v>2.0750000000000002</v>
+      </c>
+      <c r="O61" s="18">
+        <v>0.311</v>
       </c>
       <c r="P61" s="18">
-        <v>0.311</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="Q61" s="18">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="R61" s="18">
         <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="R61" s="12">
+        <v>19.2</v>
       </c>
       <c r="S61" s="12">
         <v>3.7</v>
@@ -34693,28 +34692,28 @@
         <v>4.1760000000000002</v>
       </c>
       <c r="K62" s="12">
-        <v>7.3</v>
+        <v>2.1</v>
       </c>
       <c r="L62" s="12">
-        <v>12.4</v>
-      </c>
-      <c r="M62" s="12">
-        <v>2.1</v>
-      </c>
-      <c r="N62" s="12">
-        <v>5.2</v>
-      </c>
-      <c r="O62" s="15">
-        <v>253</v>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M62" s="18">
+        <v>2.641</v>
+      </c>
+      <c r="N62" s="18">
+        <v>2.0979999999999999</v>
+      </c>
+      <c r="O62" s="18">
+        <v>0.14799999999999999</v>
       </c>
       <c r="P62" s="18">
-        <v>0.14799999999999999</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="Q62" s="18">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="R62" s="18">
         <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="R62" s="12">
+        <v>7.9</v>
       </c>
       <c r="S62" s="12">
         <v>3.8</v>
@@ -34761,28 +34760,28 @@
         <v>3.847</v>
       </c>
       <c r="K63" s="12">
-        <v>7.2</v>
+        <v>2</v>
       </c>
       <c r="L63" s="12">
-        <v>12.3</v>
-      </c>
-      <c r="M63" s="12">
-        <v>2</v>
-      </c>
-      <c r="N63" s="12">
-        <v>7.2</v>
-      </c>
-      <c r="O63" s="15">
-        <v>326</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M63" s="18">
+        <v>2.3140000000000001</v>
+      </c>
+      <c r="N63" s="18">
+        <v>2.1259999999999999</v>
+      </c>
+      <c r="O63" s="18">
+        <v>0.14000000000000001</v>
       </c>
       <c r="P63" s="18">
-        <v>0.14000000000000001</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="Q63" s="18">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="R63" s="18">
         <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R63" s="12">
+        <v>14.7</v>
       </c>
       <c r="S63" s="12">
         <v>3.8</v>
@@ -34829,28 +34828,28 @@
         <v>2.597</v>
       </c>
       <c r="K64" s="12">
-        <v>7.3</v>
+        <v>3.9</v>
       </c>
       <c r="L64" s="12">
-        <v>11.5</v>
-      </c>
-      <c r="M64" s="12">
-        <v>3.9</v>
-      </c>
-      <c r="N64" s="12">
-        <v>11</v>
-      </c>
-      <c r="O64" s="15">
-        <v>337</v>
+        <v>5.5</v>
+      </c>
+      <c r="M64" s="18">
+        <v>2.3410000000000002</v>
+      </c>
+      <c r="N64" s="18">
+        <v>1.593</v>
+      </c>
+      <c r="O64" s="18">
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="P64" s="18">
-        <v>1.7999999999999999E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="Q64" s="18">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="R64" s="18">
         <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="R64" s="12">
+        <v>24.5</v>
       </c>
       <c r="S64" s="12">
         <v>5.2</v>
@@ -34897,28 +34896,28 @@
         <v>1.98</v>
       </c>
       <c r="K65" s="12">
-        <v>8.1</v>
+        <v>5</v>
       </c>
       <c r="L65" s="12">
-        <v>13.8</v>
-      </c>
-      <c r="M65" s="12">
-        <v>5</v>
-      </c>
-      <c r="N65" s="12">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="O65" s="15">
-        <v>459</v>
+        <v>8</v>
+      </c>
+      <c r="M65" s="18">
+        <v>2.4689999999999999</v>
+      </c>
+      <c r="N65" s="18">
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="O65" s="18">
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="P65" s="18">
-        <v>2.8000000000000001E-2</v>
+        <v>0.124</v>
       </c>
       <c r="Q65" s="18">
-        <v>0.124</v>
-      </c>
-      <c r="R65" s="18">
         <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R65" s="12">
+        <v>66.400000000000006</v>
       </c>
       <c r="S65" s="12">
         <v>8.4</v>
@@ -34965,28 +34964,28 @@
         <v>2.8140000000000001</v>
       </c>
       <c r="K66" s="12">
-        <v>8.1</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L66" s="12">
-        <v>16.8</v>
-      </c>
-      <c r="M66" s="12">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="N66" s="12">
-        <v>15</v>
-      </c>
-      <c r="O66" s="15">
-        <v>343</v>
+        <v>7.9</v>
+      </c>
+      <c r="M66" s="18">
+        <v>1.897</v>
+      </c>
+      <c r="N66" s="18">
+        <v>1.179</v>
+      </c>
+      <c r="O66" s="18">
+        <v>6.3E-2</v>
       </c>
       <c r="P66" s="18">
-        <v>6.3E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="Q66" s="18">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="R66" s="18">
         <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R66" s="12">
+        <v>64.2</v>
       </c>
       <c r="S66" s="12">
         <v>5.7</v>
@@ -35033,28 +35032,28 @@
         <v>0.78700000000000003</v>
       </c>
       <c r="K67" s="12">
-        <v>8.8000000000000007</v>
+        <v>6.5</v>
       </c>
       <c r="L67" s="12">
-        <v>13.7</v>
-      </c>
-      <c r="M67" s="12">
-        <v>6.5</v>
-      </c>
-      <c r="N67" s="12">
-        <v>20.6</v>
-      </c>
-      <c r="O67" s="15">
-        <v>508</v>
+        <v>12</v>
+      </c>
+      <c r="M67" s="18">
+        <v>1.8939999999999999</v>
+      </c>
+      <c r="N67" s="18">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="O67" s="18">
+        <v>2.4E-2</v>
       </c>
       <c r="P67" s="18">
-        <v>2.4E-2</v>
+        <v>0.128</v>
       </c>
       <c r="Q67" s="18">
-        <v>0.128</v>
-      </c>
-      <c r="R67" s="18">
         <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R67" s="12">
+        <v>105.9</v>
       </c>
       <c r="S67" s="12">
         <v>8.9</v>
@@ -35101,28 +35100,28 @@
         <v>7.1719999999999997</v>
       </c>
       <c r="K68" s="12">
-        <v>8.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L68" s="12">
-        <v>11</v>
-      </c>
-      <c r="M68" s="12">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="N68" s="12">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="O68" s="15">
-        <v>216</v>
+        <v>8.5</v>
+      </c>
+      <c r="M68" s="18">
+        <v>1.446</v>
+      </c>
+      <c r="N68" s="18">
+        <v>0.97</v>
+      </c>
+      <c r="O68" s="18">
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="P68" s="18">
-        <v>8.9999999999999993E-3</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="Q68" s="18">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="R68" s="18">
         <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="R68" s="12">
+        <v>72.099999999999994</v>
       </c>
       <c r="S68" s="12">
         <v>5.9</v>
@@ -35169,28 +35168,28 @@
         <v>1.8080000000000001</v>
       </c>
       <c r="K69" s="12">
-        <v>8.1999999999999993</v>
+        <v>5.2</v>
       </c>
       <c r="L69" s="12">
-        <v>10.5</v>
-      </c>
-      <c r="M69" s="12">
-        <v>5.2</v>
-      </c>
-      <c r="N69" s="12">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="O69" s="15">
-        <v>287</v>
+        <v>10.9</v>
+      </c>
+      <c r="M69" s="18">
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="N69" s="18">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="O69" s="18">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="P69" s="18">
-        <v>2.5000000000000001E-2</v>
+        <v>0.111</v>
       </c>
       <c r="Q69" s="18">
-        <v>0.111</v>
-      </c>
-      <c r="R69" s="18">
         <v>0.01</v>
+      </c>
+      <c r="R69" s="12">
+        <v>118.2</v>
       </c>
       <c r="S69" s="12">
         <v>7.5</v>
@@ -35237,28 +35236,28 @@
         <v>1.0620000000000001</v>
       </c>
       <c r="K70" s="12">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="L70" s="12">
-        <v>10.5</v>
-      </c>
-      <c r="M70" s="12">
-        <v>7.8</v>
-      </c>
-      <c r="N70" s="12">
-        <v>18.2</v>
-      </c>
-      <c r="O70" s="15">
-        <v>305</v>
+        <v>12.7</v>
+      </c>
+      <c r="M70" s="18">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="N70" s="18">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="O70" s="18">
+        <v>3.9E-2</v>
       </c>
       <c r="P70" s="18">
-        <v>3.9E-2</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="Q70" s="18">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="R70" s="18">
         <v>1E-3</v>
+      </c>
+      <c r="R70" s="12">
+        <v>146.19999999999999</v>
       </c>
       <c r="S70" s="12">
         <v>9</v>
@@ -35305,28 +35304,28 @@
         <v>1.9730000000000001</v>
       </c>
       <c r="K71" s="12">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="L71" s="12">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="M71" s="12">
-        <v>6.4</v>
-      </c>
-      <c r="N71" s="12">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="O71" s="15">
-        <v>373</v>
+        <v>12</v>
+      </c>
+      <c r="M71" s="18">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="N71" s="18">
+        <v>0.21</v>
+      </c>
+      <c r="O71" s="18">
+        <v>0.04</v>
       </c>
       <c r="P71" s="18">
-        <v>0.04</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="Q71" s="18">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="R71" s="18">
         <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R71" s="12">
+        <v>106.2</v>
       </c>
       <c r="S71" s="12">
         <v>7.3</v>
@@ -35373,28 +35372,28 @@
         <v>1.1739999999999999</v>
       </c>
       <c r="K72" s="12">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="L72" s="12">
-        <v>13.1</v>
-      </c>
-      <c r="M72" s="12">
-        <v>7.6</v>
-      </c>
-      <c r="N72" s="12">
-        <v>24.3</v>
-      </c>
-      <c r="O72" s="15">
-        <v>441</v>
+        <v>13.9</v>
+      </c>
+      <c r="M72" s="18">
+        <v>1.6719999999999999</v>
+      </c>
+      <c r="N72" s="18">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="O72" s="18">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="P72" s="18">
-        <v>7.0999999999999994E-2</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="Q72" s="18">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="R72" s="18">
         <v>1.2E-2</v>
+      </c>
+      <c r="R72" s="12">
+        <v>89.6</v>
       </c>
       <c r="S72" s="12">
         <v>9.6</v>
@@ -35441,28 +35440,28 @@
         <v>1.93</v>
       </c>
       <c r="K73" s="12">
-        <v>8</v>
+        <v>3.9</v>
       </c>
       <c r="L73" s="12">
-        <v>11.4</v>
-      </c>
-      <c r="M73" s="12">
-        <v>3.9</v>
-      </c>
-      <c r="N73" s="12">
-        <v>21</v>
-      </c>
-      <c r="O73" s="15">
-        <v>357</v>
+        <v>14.3</v>
+      </c>
+      <c r="M73" s="18">
+        <v>1.784</v>
+      </c>
+      <c r="N73" s="18">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="O73" s="18">
+        <v>0.11899999999999999</v>
       </c>
       <c r="P73" s="18">
-        <v>0.11899999999999999</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="Q73" s="18">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="R73" s="18">
         <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="R73" s="12">
+        <v>34.700000000000003</v>
       </c>
       <c r="S73" s="12">
         <v>9.8000000000000007</v>
@@ -35509,28 +35508,28 @@
         <v>3.294</v>
       </c>
       <c r="K74" s="12">
-        <v>7.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L74" s="12">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="M74" s="12">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="N74" s="12">
-        <v>19.2</v>
-      </c>
-      <c r="O74" s="15">
-        <v>284</v>
+        <v>13.3</v>
+      </c>
+      <c r="M74" s="18">
+        <v>1.9370000000000001</v>
+      </c>
+      <c r="N74" s="18">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="O74" s="18">
+        <v>0.26700000000000002</v>
       </c>
       <c r="P74" s="18">
-        <v>0.26700000000000002</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="Q74" s="18">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="R74" s="18">
         <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="R74" s="12">
+        <v>54.9</v>
       </c>
       <c r="S74" s="12">
         <v>9.8000000000000007</v>
@@ -35577,28 +35576,28 @@
         <v>5.1619999999999999</v>
       </c>
       <c r="K75" s="12">
-        <v>7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L75" s="12">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="M75" s="12">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="N75" s="12">
-        <v>12.5</v>
-      </c>
-      <c r="O75" s="15">
-        <v>334</v>
+        <v>12.1</v>
+      </c>
+      <c r="M75" s="18">
+        <v>2.5350000000000001</v>
+      </c>
+      <c r="N75" s="18">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="O75" s="18">
+        <v>0.28799999999999998</v>
       </c>
       <c r="P75" s="18">
-        <v>0.28799999999999998</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="Q75" s="18">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="R75" s="18">
         <v>2.7E-2</v>
+      </c>
+      <c r="R75" s="12">
+        <v>25.3</v>
       </c>
       <c r="S75" s="12">
         <v>9.1</v>
@@ -35645,28 +35644,28 @@
         <v>3.2879999999999998</v>
       </c>
       <c r="K76" s="12">
-        <v>6.8</v>
+        <v>3</v>
       </c>
       <c r="L76" s="12">
-        <v>7.6</v>
-      </c>
-      <c r="M76" s="12">
-        <v>3</v>
-      </c>
-      <c r="N76" s="12">
-        <v>12.5</v>
-      </c>
-      <c r="O76" s="15">
-        <v>313</v>
+        <v>10.7</v>
+      </c>
+      <c r="M76" s="18">
+        <v>2.169</v>
+      </c>
+      <c r="N76" s="18">
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="O76" s="18">
+        <v>0.40600000000000003</v>
       </c>
       <c r="P76" s="18">
-        <v>0.40600000000000003</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="Q76" s="18">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="R76" s="18">
         <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="R76" s="12">
+        <v>21.3</v>
       </c>
       <c r="S76" s="12">
         <v>8.1</v>
@@ -35713,28 +35712,28 @@
         <v>2.9769999999999999</v>
       </c>
       <c r="K77" s="12">
-        <v>7.1</v>
+        <v>5</v>
       </c>
       <c r="L77" s="12">
-        <v>6.2</v>
-      </c>
-      <c r="M77" s="12">
-        <v>5</v>
-      </c>
-      <c r="N77" s="12">
-        <v>15</v>
-      </c>
-      <c r="O77" s="15">
-        <v>339</v>
+        <v>13.5</v>
+      </c>
+      <c r="M77" s="18">
+        <v>1.821</v>
+      </c>
+      <c r="N77" s="18">
+        <v>0.626</v>
+      </c>
+      <c r="O77" s="18">
+        <v>0.26200000000000001</v>
       </c>
       <c r="P77" s="18">
-        <v>0.26200000000000001</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="Q77" s="18">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="R77" s="18">
         <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="R77" s="12">
+        <v>44.4</v>
       </c>
       <c r="S77" s="12">
         <v>10.4</v>
@@ -35781,28 +35780,28 @@
         <v>2.4649999999999999</v>
       </c>
       <c r="K78" s="12">
-        <v>6.6</v>
+        <v>3.1</v>
       </c>
       <c r="L78" s="12">
-        <v>6.2</v>
-      </c>
-      <c r="M78" s="12">
-        <v>3.1</v>
-      </c>
-      <c r="N78" s="12">
-        <v>11.6</v>
-      </c>
-      <c r="O78" s="15">
-        <v>343</v>
+        <v>14.3</v>
+      </c>
+      <c r="M78" s="18">
+        <v>2.044</v>
+      </c>
+      <c r="N78" s="18">
+        <v>0.879</v>
+      </c>
+      <c r="O78" s="18">
+        <v>0.188</v>
       </c>
       <c r="P78" s="18">
-        <v>0.188</v>
+        <v>0.12</v>
       </c>
       <c r="Q78" s="18">
-        <v>0.12</v>
-      </c>
-      <c r="R78" s="18">
         <v>3.9E-2</v>
+      </c>
+      <c r="R78" s="12">
+        <v>37.1</v>
       </c>
       <c r="S78" s="12">
         <v>10.5</v>
@@ -35849,28 +35848,28 @@
         <v>13.65</v>
       </c>
       <c r="K79" s="12">
-        <v>7.4</v>
+        <v>2.8</v>
       </c>
       <c r="L79" s="12">
-        <v>6.9</v>
-      </c>
-      <c r="M79" s="12">
-        <v>2.8</v>
-      </c>
-      <c r="N79" s="12">
-        <v>14</v>
-      </c>
-      <c r="O79" s="15">
-        <v>224</v>
+        <v>10.7</v>
+      </c>
+      <c r="M79" s="18">
+        <v>1.893</v>
+      </c>
+      <c r="N79" s="18">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="O79" s="18">
+        <v>0.255</v>
       </c>
       <c r="P79" s="18">
-        <v>0.255</v>
+        <v>0.12</v>
       </c>
       <c r="Q79" s="18">
-        <v>0.12</v>
-      </c>
-      <c r="R79" s="18">
         <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="R79" s="12">
+        <v>16</v>
       </c>
       <c r="S79" s="12">
         <v>7.7</v>
@@ -35917,28 +35916,28 @@
         <v>11.708</v>
       </c>
       <c r="K80" s="12">
-        <v>7.6</v>
+        <v>2.7</v>
       </c>
       <c r="L80" s="12">
-        <v>7.2</v>
-      </c>
-      <c r="M80" s="12">
-        <v>2.7</v>
-      </c>
-      <c r="N80" s="12">
-        <v>15</v>
-      </c>
-      <c r="O80" s="15">
-        <v>191</v>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M80" s="18">
+        <v>2.1720000000000002</v>
+      </c>
+      <c r="N80" s="18">
+        <v>1.278</v>
+      </c>
+      <c r="O80" s="18">
+        <v>0.224</v>
       </c>
       <c r="P80" s="18">
-        <v>0.224</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="Q80" s="18">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="R80" s="18">
         <v>7.8E-2</v>
+      </c>
+      <c r="R80" s="12">
+        <v>7.3</v>
       </c>
       <c r="S80" s="12">
         <v>7</v>
@@ -35985,28 +35984,28 @@
         <v>12.706</v>
       </c>
       <c r="K81" s="12">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="L81" s="12">
-        <v>6.5</v>
-      </c>
-      <c r="M81" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="N81" s="12">
-        <v>7.8</v>
-      </c>
-      <c r="O81" s="15">
-        <v>194</v>
+        <v>6.7</v>
+      </c>
+      <c r="M81" s="18">
+        <v>2.2810000000000001</v>
+      </c>
+      <c r="N81" s="18">
+        <v>1.911</v>
+      </c>
+      <c r="O81" s="18">
+        <v>0.10199999999999999</v>
       </c>
       <c r="P81" s="18">
-        <v>0.10199999999999999</v>
+        <v>0.121</v>
       </c>
       <c r="Q81" s="18">
-        <v>0.121</v>
-      </c>
-      <c r="R81" s="18">
         <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="R81" s="12">
+        <v>6.7</v>
       </c>
       <c r="S81" s="12">
         <v>4.8</v>
@@ -36053,28 +36052,28 @@
         <v>3.609</v>
       </c>
       <c r="K82" s="12">
-        <v>7.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L82" s="12">
-        <v>5.8</v>
-      </c>
-      <c r="M82" s="12">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="N82" s="12">
-        <v>4.3</v>
-      </c>
-      <c r="O82" s="15">
-        <v>292</v>
+        <v>6.8</v>
+      </c>
+      <c r="M82" s="18">
+        <v>1.5369999999999999</v>
+      </c>
+      <c r="N82" s="18">
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="O82" s="18">
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="P82" s="18">
-        <v>6.8000000000000005E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="Q82" s="18">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="R82" s="18">
         <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="R82" s="12">
+        <v>26.3</v>
       </c>
       <c r="S82" s="12">
         <v>5.3</v>
@@ -36121,28 +36120,28 @@
         <v>1.804</v>
       </c>
       <c r="K83" s="12">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="L83" s="12">
-        <v>7</v>
-      </c>
-      <c r="M83" s="12">
-        <v>3.2</v>
-      </c>
-      <c r="N83" s="12">
-        <v>9.1</v>
-      </c>
-      <c r="O83" s="15">
-        <v>241</v>
+        <v>7.4</v>
+      </c>
+      <c r="M83" s="18">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="N83" s="18">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="O83" s="18">
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="P83" s="18">
-        <v>6.7000000000000004E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="Q83" s="18">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="R83" s="18">
         <v>2.3E-2</v>
+      </c>
+      <c r="R83" s="12">
+        <v>50.3</v>
       </c>
       <c r="S83" s="12">
         <v>5.5</v>
@@ -36189,28 +36188,28 @@
         <v>29.849</v>
       </c>
       <c r="K84" s="12">
-        <v>7.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L84" s="12">
-        <v>7.1</v>
-      </c>
-      <c r="M84" s="12">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="N84" s="12">
-        <v>36</v>
-      </c>
-      <c r="O84" s="15">
-        <v>130</v>
+        <v>7.6</v>
+      </c>
+      <c r="M84" s="18">
+        <v>1.2629999999999999</v>
+      </c>
+      <c r="N84" s="18">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="O84" s="18">
+        <v>0.11700000000000001</v>
       </c>
       <c r="P84" s="18">
-        <v>0.11700000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="Q84" s="18">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="R84" s="18">
         <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="R84" s="12">
+        <v>9.8000000000000007</v>
       </c>
       <c r="S84" s="12">
         <v>5.7</v>
@@ -36257,28 +36256,28 @@
         <v>86.870999999999995</v>
       </c>
       <c r="K85" s="12">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="L85" s="12">
-        <v>7.7</v>
-      </c>
-      <c r="M85" s="12">
-        <v>3.2</v>
-      </c>
-      <c r="N85" s="12">
-        <v>37</v>
-      </c>
-      <c r="O85" s="15">
-        <v>181</v>
+        <v>8</v>
+      </c>
+      <c r="M85" s="18">
+        <v>1.605</v>
+      </c>
+      <c r="N85" s="18">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="O85" s="18">
+        <v>0.114</v>
       </c>
       <c r="P85" s="18">
-        <v>0.114</v>
+        <v>0.16</v>
       </c>
       <c r="Q85" s="18">
-        <v>0.16</v>
-      </c>
-      <c r="R85" s="18">
         <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="R85" s="12">
+        <v>18</v>
       </c>
       <c r="S85" s="12">
         <v>5.9</v>
@@ -36325,28 +36324,28 @@
         <v>8.1359999999999992</v>
       </c>
       <c r="K86" s="12">
-        <v>7.4</v>
+        <v>1.2</v>
       </c>
       <c r="L86" s="12">
-        <v>8</v>
-      </c>
-      <c r="M86" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="N86" s="12">
-        <v>3.9</v>
-      </c>
-      <c r="O86" s="15">
-        <v>181</v>
+        <v>5.2</v>
+      </c>
+      <c r="M86" s="18">
+        <v>1.89</v>
+      </c>
+      <c r="N86" s="18">
+        <v>1.4159999999999999</v>
+      </c>
+      <c r="O86" s="18">
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="P86" s="18">
-        <v>6.7000000000000004E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="Q86" s="18">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="R86" s="18">
         <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="R86" s="12">
+        <v>3.6</v>
       </c>
       <c r="S86" s="12">
         <v>3.9</v>
@@ -36393,28 +36392,28 @@
         <v>6.2569999999999997</v>
       </c>
       <c r="K87" s="12">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="L87" s="12">
-        <v>9.1</v>
-      </c>
-      <c r="M87" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="N87" s="12">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="O87" s="15">
-        <v>261</v>
+        <v>5.3</v>
+      </c>
+      <c r="M87" s="18">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="N87" s="18">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="O87" s="18">
+        <v>1.4E-2</v>
       </c>
       <c r="P87" s="18">
-        <v>1.4E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="Q87" s="18">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="R87" s="18">
         <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R87" s="12">
+        <v>20.5</v>
       </c>
       <c r="S87" s="12">
         <v>4.4000000000000004</v>
@@ -36461,28 +36460,28 @@
         <v>33.968000000000004</v>
       </c>
       <c r="K88" s="12">
-        <v>7.6</v>
+        <v>1.8</v>
       </c>
       <c r="L88" s="12">
-        <v>7.6</v>
-      </c>
-      <c r="M88" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="N88" s="12">
-        <v>18</v>
-      </c>
-      <c r="O88" s="15">
-        <v>122</v>
+        <v>7.4</v>
+      </c>
+      <c r="M88" s="18">
+        <v>1.6859999999999999</v>
+      </c>
+      <c r="N88" s="18">
+        <v>1.0509999999999999</v>
+      </c>
+      <c r="O88" s="18">
+        <v>0.08</v>
       </c>
       <c r="P88" s="18">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="Q88" s="18">
         <v>0.08</v>
       </c>
-      <c r="Q88" s="18">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="R88" s="18">
-        <v>0.08</v>
+      <c r="R88" s="12">
+        <v>4.7</v>
       </c>
       <c r="S88" s="12">
         <v>5.2</v>
@@ -36529,28 +36528,28 @@
         <v>3.9630000000000001</v>
       </c>
       <c r="K89" s="12">
-        <v>7.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L89" s="12">
-        <v>8.5</v>
-      </c>
-      <c r="M89" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N89" s="12">
-        <v>2.1</v>
-      </c>
-      <c r="O89" s="15">
-        <v>252</v>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M89" s="18">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="N89" s="18">
+        <v>1.141</v>
+      </c>
+      <c r="O89" s="18">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="P89" s="18">
-        <v>2.5000000000000001E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="Q89" s="18">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="R89" s="18">
         <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="R89" s="12">
+        <v>5.8</v>
       </c>
       <c r="S89" s="12">
         <v>4.0999999999999996</v>
@@ -36597,28 +36596,28 @@
         <v>4.1689999999999996</v>
       </c>
       <c r="K90" s="12">
-        <v>7.1</v>
+        <v>1.5</v>
       </c>
       <c r="L90" s="12">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="M90" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="N90" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="O90" s="15">
-        <v>247</v>
+        <v>5.2</v>
+      </c>
+      <c r="M90" s="18">
+        <v>1.161</v>
+      </c>
+      <c r="N90" s="18">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="O90" s="18">
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="P90" s="18">
-        <v>3.3000000000000002E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="Q90" s="18">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="R90" s="18">
         <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R90" s="12">
+        <v>11.6</v>
       </c>
       <c r="S90" s="12">
         <v>4.2</v>
@@ -36665,28 +36664,28 @@
         <v>4.2480000000000002</v>
       </c>
       <c r="K91" s="12">
-        <v>8.1999999999999993</v>
+        <v>1.2</v>
       </c>
       <c r="L91" s="12">
-        <v>11.7</v>
-      </c>
-      <c r="M91" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="N91" s="12">
-        <v>2.9</v>
-      </c>
-      <c r="O91" s="15">
-        <v>295</v>
+        <v>5</v>
+      </c>
+      <c r="M91" s="18">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="N91" s="18">
+        <v>1.282</v>
+      </c>
+      <c r="O91" s="18">
+        <v>0.18099999999999999</v>
       </c>
       <c r="P91" s="18">
-        <v>0.18099999999999999</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="Q91" s="18">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="R91" s="18">
         <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="R91" s="12">
+        <v>3.9</v>
       </c>
       <c r="S91" s="12">
         <v>3.7</v>
@@ -36733,28 +36732,28 @@
         <v>3.4449999999999998</v>
       </c>
       <c r="K92" s="12">
-        <v>7.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L92" s="12">
-        <v>10.8</v>
-      </c>
-      <c r="M92" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N92" s="12">
-        <v>3.2</v>
-      </c>
-      <c r="O92" s="15">
-        <v>310</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M92" s="18">
+        <v>1.956</v>
+      </c>
+      <c r="N92" s="18">
+        <v>1.427</v>
+      </c>
+      <c r="O92" s="18">
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="P92" s="18">
-        <v>5.7000000000000002E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="Q92" s="18">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="R92" s="18">
         <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="R92" s="12">
+        <v>7.1</v>
       </c>
       <c r="S92" s="12">
         <v>3.9</v>
@@ -36801,28 +36800,28 @@
         <v>3.1110000000000002</v>
       </c>
       <c r="K93" s="12">
-        <v>7.5</v>
+        <v>1.2</v>
       </c>
       <c r="L93" s="12">
+        <v>5.3</v>
+      </c>
+      <c r="M93" s="18">
+        <v>1.7689999999999999</v>
+      </c>
+      <c r="N93" s="18">
+        <v>1.238</v>
+      </c>
+      <c r="O93" s="18">
+        <v>0.12</v>
+      </c>
+      <c r="P93" s="18">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="Q93" s="18">
+        <v>2.7E-2</v>
+      </c>
+      <c r="R93" s="12">
         <v>10.5</v>
-      </c>
-      <c r="M93" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="N93" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="O93" s="15">
-        <v>381</v>
-      </c>
-      <c r="P93" s="18">
-        <v>0.12</v>
-      </c>
-      <c r="Q93" s="18">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="R93" s="18">
-        <v>2.7E-2</v>
       </c>
       <c r="S93" s="12">
         <v>4</v>
@@ -36869,28 +36868,28 @@
         <v>2.7549999999999999</v>
       </c>
       <c r="K94" s="12">
-        <v>7.7</v>
+        <v>2.8</v>
       </c>
       <c r="L94" s="12">
-        <v>13.4</v>
-      </c>
-      <c r="M94" s="12">
-        <v>2.8</v>
-      </c>
-      <c r="N94" s="12">
-        <v>6</v>
-      </c>
-      <c r="O94" s="15">
-        <v>399</v>
+        <v>6.7</v>
+      </c>
+      <c r="M94" s="18">
+        <v>1.5149999999999999</v>
+      </c>
+      <c r="N94" s="18">
+        <v>1.1619999999999999</v>
+      </c>
+      <c r="O94" s="18">
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="P94" s="18">
-        <v>8.9999999999999993E-3</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="Q94" s="18">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="R94" s="18">
         <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="R94" s="12">
+        <v>50.1</v>
       </c>
       <c r="S94" s="12">
         <v>5.3</v>
@@ -36937,28 +36936,28 @@
         <v>2.117</v>
       </c>
       <c r="K95" s="12">
-        <v>7.7</v>
+        <v>3.8</v>
       </c>
       <c r="L95" s="12">
-        <v>10.7</v>
-      </c>
-      <c r="M95" s="12">
-        <v>3.8</v>
-      </c>
-      <c r="N95" s="12">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="O95" s="15">
-        <v>516</v>
+        <v>6.8</v>
+      </c>
+      <c r="M95" s="18">
+        <v>1.889</v>
+      </c>
+      <c r="N95" s="18">
+        <v>1.123</v>
+      </c>
+      <c r="O95" s="18">
+        <v>0.38700000000000001</v>
       </c>
       <c r="P95" s="18">
-        <v>0.38700000000000001</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="Q95" s="18">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="R95" s="18">
         <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R95" s="12">
+        <v>75.599999999999994</v>
       </c>
       <c r="S95" s="12">
         <v>5.6</v>
@@ -37005,28 +37004,28 @@
         <v>2.0219999999999998</v>
       </c>
       <c r="K96" s="12">
-        <v>7.8</v>
+        <v>3.7</v>
       </c>
       <c r="L96" s="12">
-        <v>11.4</v>
-      </c>
-      <c r="M96" s="12">
-        <v>3.7</v>
-      </c>
-      <c r="N96" s="12">
-        <v>9.6</v>
-      </c>
-      <c r="O96" s="15">
-        <v>515</v>
+        <v>7.3</v>
+      </c>
+      <c r="M96" s="18">
+        <v>1.4870000000000001</v>
+      </c>
+      <c r="N96" s="18">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="O96" s="18">
+        <v>1.6E-2</v>
       </c>
       <c r="P96" s="18">
-        <v>1.6E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="Q96" s="18">
-        <v>6.3E-2</v>
-      </c>
-      <c r="R96" s="18">
         <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="R96" s="12">
+        <v>72.7</v>
       </c>
       <c r="S96" s="12">
         <v>6.2</v>
@@ -37073,28 +37072,28 @@
         <v>1.9430000000000001</v>
       </c>
       <c r="K97" s="12">
-        <v>8.1</v>
+        <v>4.7</v>
       </c>
       <c r="L97" s="12">
-        <v>12.1</v>
-      </c>
-      <c r="M97" s="12">
-        <v>4.7</v>
-      </c>
-      <c r="N97" s="12">
-        <v>11.5</v>
-      </c>
-      <c r="O97" s="15">
-        <v>553</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M97" s="18">
+        <v>1.9730000000000001</v>
+      </c>
+      <c r="N97" s="18">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="O97" s="18">
+        <v>0.34200000000000003</v>
       </c>
       <c r="P97" s="18">
-        <v>0.34200000000000003</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="Q97" s="18">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="R97" s="18">
         <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="R97" s="12">
+        <v>88.5</v>
       </c>
       <c r="S97" s="12">
         <v>6.5</v>
@@ -37141,28 +37140,28 @@
         <v>2.8039999999999998</v>
       </c>
       <c r="K98" s="12">
-        <v>8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L98" s="12">
-        <v>13.4</v>
-      </c>
-      <c r="M98" s="12">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="N98" s="12">
-        <v>9.6</v>
-      </c>
-      <c r="O98" s="15">
-        <v>389</v>
+        <v>7</v>
+      </c>
+      <c r="M98" s="18">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="N98" s="18">
+        <v>1.679</v>
+      </c>
+      <c r="O98" s="18">
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="P98" s="18">
-        <v>2.1000000000000001E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="Q98" s="18">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="R98" s="18">
         <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="R98" s="12">
+        <v>73</v>
       </c>
       <c r="S98" s="12">
         <v>5.5</v>
@@ -37209,28 +37208,28 @@
         <v>2.2559999999999998</v>
       </c>
       <c r="K99" s="12">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="L99" s="12">
-        <v>13.1</v>
-      </c>
-      <c r="M99" s="12">
-        <v>3.6</v>
-      </c>
-      <c r="N99" s="12">
-        <v>7.6</v>
-      </c>
-      <c r="O99" s="15">
-        <v>414</v>
+        <v>6.5</v>
+      </c>
+      <c r="M99" s="18">
+        <v>2.36</v>
+      </c>
+      <c r="N99" s="18">
+        <v>1.7829999999999999</v>
+      </c>
+      <c r="O99" s="18">
+        <v>0.22500000000000001</v>
       </c>
       <c r="P99" s="18">
-        <v>0.22500000000000001</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="Q99" s="18">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="R99" s="18">
         <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R99" s="12">
+        <v>51.5</v>
       </c>
       <c r="S99" s="12">
         <v>5.7</v>
@@ -37277,28 +37276,28 @@
         <v>2.4460000000000002</v>
       </c>
       <c r="K100" s="12">
-        <v>7.4</v>
+        <v>2.9</v>
       </c>
       <c r="L100" s="12">
-        <v>11.6</v>
-      </c>
-      <c r="M100" s="12">
-        <v>2.9</v>
-      </c>
-      <c r="N100" s="12">
-        <v>6.6</v>
-      </c>
-      <c r="O100" s="15">
-        <v>382</v>
+        <v>5.7</v>
+      </c>
+      <c r="M100" s="18">
+        <v>2.8780000000000001</v>
+      </c>
+      <c r="N100" s="18">
+        <v>2.0670000000000002</v>
+      </c>
+      <c r="O100" s="18">
+        <v>0.38700000000000001</v>
       </c>
       <c r="P100" s="18">
-        <v>0.38700000000000001</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="Q100" s="18">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="R100" s="18">
         <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="R100" s="12">
+        <v>43.1</v>
       </c>
       <c r="S100" s="12">
         <v>4.8</v>
@@ -37345,28 +37344,28 @@
         <v>2.2770000000000001</v>
       </c>
       <c r="K101" s="12">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="L101" s="12">
-        <v>12.6</v>
-      </c>
-      <c r="M101" s="12">
-        <v>3</v>
-      </c>
-      <c r="N101" s="12">
-        <v>7.3</v>
-      </c>
-      <c r="O101" s="15">
-        <v>341</v>
+        <v>5.3</v>
+      </c>
+      <c r="M101" s="18">
+        <v>2.9750000000000001</v>
+      </c>
+      <c r="N101" s="18">
+        <v>2.1339999999999999</v>
+      </c>
+      <c r="O101" s="18">
+        <v>0.312</v>
       </c>
       <c r="P101" s="18">
-        <v>0.312</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="Q101" s="18">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="R101" s="18">
         <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="R101" s="12">
+        <v>44.4</v>
       </c>
       <c r="S101" s="12">
         <v>4.3</v>
@@ -37413,28 +37412,28 @@
         <v>3.5110000000000001</v>
       </c>
       <c r="K102" s="12">
-        <v>7.6</v>
+        <v>3.6</v>
       </c>
       <c r="L102" s="12">
-        <v>13.3</v>
-      </c>
-      <c r="M102" s="12">
-        <v>3.6</v>
-      </c>
-      <c r="N102" s="12">
-        <v>8.6</v>
-      </c>
-      <c r="O102" s="15">
-        <v>314</v>
+        <v>6</v>
+      </c>
+      <c r="M102" s="18">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="N102" s="18">
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="O102" s="18">
+        <v>0.153</v>
       </c>
       <c r="P102" s="18">
-        <v>0.153</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="Q102" s="18">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="R102" s="18">
         <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R102" s="12">
+        <v>57.2</v>
       </c>
       <c r="S102" s="12">
         <v>5.0999999999999996</v>
@@ -37481,28 +37480,28 @@
         <v>2.657</v>
       </c>
       <c r="K103" s="12">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="L103" s="12">
-        <v>14.1</v>
-      </c>
-      <c r="M103" s="12">
-        <v>3.1</v>
-      </c>
-      <c r="N103" s="12">
-        <v>7.4</v>
-      </c>
-      <c r="O103" s="15">
-        <v>339</v>
+        <v>5.9</v>
+      </c>
+      <c r="M103" s="18">
+        <v>2.81</v>
+      </c>
+      <c r="N103" s="18">
+        <v>2.1179999999999999</v>
+      </c>
+      <c r="O103" s="18">
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="P103" s="18">
-        <v>3.7999999999999999E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="Q103" s="18">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="R103" s="18">
         <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="R103" s="12">
+        <v>33.9</v>
       </c>
       <c r="S103" s="12">
         <v>4.5999999999999996</v>
@@ -37549,28 +37548,28 @@
         <v>2.4319999999999999</v>
       </c>
       <c r="K104" s="12">
-        <v>8.4</v>
+        <v>3.6</v>
       </c>
       <c r="L104" s="12">
-        <v>13.1</v>
-      </c>
-      <c r="M104" s="12">
-        <v>3.6</v>
-      </c>
-      <c r="N104" s="12">
-        <v>9.5</v>
-      </c>
-      <c r="O104" s="15">
-        <v>352</v>
+        <v>6.2</v>
+      </c>
+      <c r="M104" s="18">
+        <v>2.2879999999999998</v>
+      </c>
+      <c r="N104" s="18">
+        <v>1.599</v>
+      </c>
+      <c r="O104" s="18">
+        <v>0.53600000000000003</v>
       </c>
       <c r="P104" s="18">
-        <v>0.53600000000000003</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="Q104" s="18">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="R104" s="18">
         <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="R104" s="12">
+        <v>64.8</v>
       </c>
       <c r="S104" s="12">
         <v>4.7</v>
@@ -37617,28 +37616,28 @@
         <v>3.004</v>
       </c>
       <c r="K105" s="12">
-        <v>8.4</v>
+        <v>3.2</v>
       </c>
       <c r="L105" s="12">
-        <v>12.5</v>
-      </c>
-      <c r="M105" s="12">
-        <v>3.2</v>
-      </c>
-      <c r="N105" s="12">
-        <v>7.1</v>
-      </c>
-      <c r="O105" s="15">
-        <v>356</v>
+        <v>5.3</v>
+      </c>
+      <c r="M105" s="18">
+        <v>2.64</v>
+      </c>
+      <c r="N105" s="18">
+        <v>2.0089999999999999</v>
+      </c>
+      <c r="O105" s="18">
+        <v>0.124</v>
       </c>
       <c r="P105" s="18">
-        <v>0.124</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="Q105" s="18">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="R105" s="18">
         <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="R105" s="12">
+        <v>37.299999999999997</v>
       </c>
       <c r="S105" s="12">
         <v>4.4000000000000004</v>
@@ -37685,28 +37684,28 @@
         <v>3.448</v>
       </c>
       <c r="K106" s="12">
-        <v>7.1</v>
+        <v>2.5</v>
       </c>
       <c r="L106" s="12">
-        <v>13.6</v>
-      </c>
-      <c r="M106" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="N106" s="12">
-        <v>4.7</v>
-      </c>
-      <c r="O106" s="15">
-        <v>293</v>
+        <v>5.7</v>
+      </c>
+      <c r="M106" s="18">
+        <v>2.5640000000000001</v>
+      </c>
+      <c r="N106" s="18">
+        <v>1.7190000000000001</v>
+      </c>
+      <c r="O106" s="18">
+        <v>0.14199999999999999</v>
       </c>
       <c r="P106" s="18">
-        <v>0.14199999999999999</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="Q106" s="18">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="R106" s="18">
         <v>0.02</v>
+      </c>
+      <c r="R106" s="12">
+        <v>17.8</v>
       </c>
       <c r="S106" s="12">
         <v>4.5999999999999996</v>
@@ -37753,28 +37752,28 @@
         <v>2.5880000000000001</v>
       </c>
       <c r="K107" s="12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L107" s="12">
-        <v>7.4</v>
-      </c>
-      <c r="M107" s="12">
-        <v>2</v>
-      </c>
-      <c r="N107" s="12">
-        <v>5</v>
-      </c>
-      <c r="O107" s="15">
-        <v>299</v>
+        <v>4.8</v>
+      </c>
+      <c r="M107" s="18">
+        <v>2.831</v>
+      </c>
+      <c r="N107" s="18">
+        <v>1.774</v>
+      </c>
+      <c r="O107" s="18">
+        <v>0.38800000000000001</v>
       </c>
       <c r="P107" s="18">
-        <v>0.38800000000000001</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="Q107" s="18">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="R107" s="18">
         <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R107" s="12">
+        <v>16.899999999999999</v>
       </c>
       <c r="S107" s="12">
         <v>4</v>
@@ -37821,28 +37820,28 @@
         <v>2.5830000000000002</v>
       </c>
       <c r="K108" s="12">
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L108" s="12">
-        <v>11.1</v>
-      </c>
-      <c r="M108" s="12">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="N108" s="12">
-        <v>6.5</v>
-      </c>
-      <c r="O108" s="15">
-        <v>430</v>
+        <v>4.5</v>
+      </c>
+      <c r="M108" s="18">
+        <v>2.7709999999999999</v>
+      </c>
+      <c r="N108" s="18">
+        <v>2.097</v>
+      </c>
+      <c r="O108" s="18">
+        <v>0.05</v>
       </c>
       <c r="P108" s="18">
-        <v>0.05</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="Q108" s="18">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="R108" s="18">
         <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="R108" s="12">
+        <v>27.5</v>
       </c>
       <c r="S108" s="12">
         <v>3.6</v>
@@ -37889,28 +37888,28 @@
         <v>2.64</v>
       </c>
       <c r="K109" s="12">
-        <v>7.9</v>
+        <v>2.4</v>
       </c>
       <c r="L109" s="12">
-        <v>10.7</v>
-      </c>
-      <c r="M109" s="12">
-        <v>2.4</v>
-      </c>
-      <c r="N109" s="12">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="O109" s="15">
-        <v>464</v>
+        <v>4.3</v>
+      </c>
+      <c r="M109" s="18">
+        <v>2.9260000000000002</v>
+      </c>
+      <c r="N109" s="18">
+        <v>2.1640000000000001</v>
+      </c>
+      <c r="O109" s="18">
+        <v>0.157</v>
       </c>
       <c r="P109" s="18">
-        <v>0.157</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="Q109" s="18">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="R109" s="18">
         <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="R109" s="12">
+        <v>20.399999999999999</v>
       </c>
       <c r="S109" s="12">
         <v>3.5</v>
@@ -37957,28 +37956,28 @@
         <v>2.2069999999999999</v>
       </c>
       <c r="K110" s="12">
-        <v>8.4</v>
+        <v>3.4</v>
       </c>
       <c r="L110" s="12">
-        <v>8.4</v>
-      </c>
-      <c r="M110" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="N110" s="12">
-        <v>6.5</v>
-      </c>
-      <c r="O110" s="15">
-        <v>451</v>
+        <v>5.7</v>
+      </c>
+      <c r="M110" s="18">
+        <v>2.7040000000000002</v>
+      </c>
+      <c r="N110" s="18">
+        <v>1.82</v>
+      </c>
+      <c r="O110" s="18">
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="P110" s="18">
-        <v>8.5000000000000006E-2</v>
+        <v>0.112</v>
       </c>
       <c r="Q110" s="18">
-        <v>0.112</v>
-      </c>
-      <c r="R110" s="18">
         <v>1.4E-2</v>
+      </c>
+      <c r="R110" s="12">
+        <v>51.2</v>
       </c>
       <c r="S110" s="12">
         <v>4.5999999999999996</v>
@@ -38025,28 +38024,28 @@
         <v>1.8080000000000001</v>
       </c>
       <c r="K111" s="12">
+        <v>4.7</v>
+      </c>
+      <c r="L111" s="12">
         <v>8.5</v>
       </c>
-      <c r="L111" s="12">
-        <v>7.8</v>
-      </c>
-      <c r="M111" s="12">
-        <v>4.7</v>
-      </c>
-      <c r="N111" s="12">
-        <v>13.2</v>
-      </c>
-      <c r="O111" s="15">
-        <v>413</v>
+      <c r="M111" s="18">
+        <v>2.2360000000000002</v>
+      </c>
+      <c r="N111" s="18">
+        <v>1.468</v>
+      </c>
+      <c r="O111" s="18">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="P111" s="18">
-        <v>6.0000000000000001E-3</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="Q111" s="18">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="R111" s="18">
         <v>1.6E-2</v>
+      </c>
+      <c r="R111" s="12">
+        <v>88.1</v>
       </c>
       <c r="S111" s="12">
         <v>6.2</v>
@@ -38093,28 +38092,28 @@
         <v>3.0880000000000001</v>
       </c>
       <c r="K112" s="12">
-        <v>7.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L112" s="12">
-        <v>10.4</v>
-      </c>
-      <c r="M112" s="12">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="N112" s="12">
-        <v>15.3</v>
-      </c>
-      <c r="O112" s="15">
-        <v>332</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M112" s="18">
+        <v>2.2389999999999999</v>
+      </c>
+      <c r="N112" s="18">
+        <v>1.3029999999999999</v>
+      </c>
+      <c r="O112" s="18">
+        <v>0.192</v>
       </c>
       <c r="P112" s="18">
-        <v>0.192</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="Q112" s="18">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="R112" s="18">
         <v>0.01</v>
+      </c>
+      <c r="R112" s="12">
+        <v>72.400000000000006</v>
       </c>
       <c r="S112" s="12">
         <v>6.5</v>
@@ -38161,28 +38160,28 @@
         <v>2.95</v>
       </c>
       <c r="K113" s="12">
-        <v>6.6</v>
+        <v>3.6</v>
       </c>
       <c r="L113" s="12">
-        <v>11.5</v>
-      </c>
-      <c r="M113" s="12">
-        <v>3.6</v>
-      </c>
-      <c r="N113" s="12">
         <v>7.5</v>
       </c>
-      <c r="O113" s="15">
-        <v>307</v>
+      <c r="M113" s="18">
+        <v>2.8029999999999999</v>
+      </c>
+      <c r="N113" s="18">
+        <v>1.855</v>
+      </c>
+      <c r="O113" s="18">
+        <v>0.221</v>
       </c>
       <c r="P113" s="18">
-        <v>0.221</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="Q113" s="18">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="R113" s="18">
         <v>1.2E-2</v>
+      </c>
+      <c r="R113" s="12">
+        <v>34.6</v>
       </c>
       <c r="S113" s="12">
         <v>5.5</v>
@@ -38229,28 +38228,28 @@
         <v>32.093000000000004</v>
       </c>
       <c r="K114" s="12">
-        <v>7.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L114" s="12">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="M114" s="12">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="N114" s="12">
-        <v>34.4</v>
-      </c>
-      <c r="O114" s="15">
-        <v>229</v>
+        <v>9.1</v>
+      </c>
+      <c r="M114" s="18">
+        <v>3.4079999999999999</v>
+      </c>
+      <c r="N114" s="18">
+        <v>2.2330000000000001</v>
+      </c>
+      <c r="O114" s="18">
+        <v>0.34599999999999997</v>
       </c>
       <c r="P114" s="18">
-        <v>0.34599999999999997</v>
+        <v>0.16</v>
       </c>
       <c r="Q114" s="18">
-        <v>0.16</v>
-      </c>
-      <c r="R114" s="18">
         <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="R114" s="12">
+        <v>21.3</v>
       </c>
       <c r="S114" s="12">
         <v>6.3</v>
@@ -38297,28 +38296,28 @@
         <v>7.4260000000000002</v>
       </c>
       <c r="K115" s="12">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="L115" s="12">
-        <v>12.1</v>
-      </c>
-      <c r="M115" s="12">
-        <v>1.4</v>
-      </c>
-      <c r="N115" s="12">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="O115" s="15">
-        <v>176</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M115" s="18">
+        <v>1.9079999999999999</v>
+      </c>
+      <c r="N115" s="18">
+        <v>1.333</v>
+      </c>
+      <c r="O115" s="18">
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="P115" s="18">
-        <v>4.8000000000000001E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="Q115" s="18">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="R115" s="18">
         <v>1.9E-2</v>
+      </c>
+      <c r="R115" s="12">
+        <v>8.5</v>
       </c>
       <c r="S115" s="12">
         <v>3.8</v>
@@ -38365,28 +38364,28 @@
         <v>2.415</v>
       </c>
       <c r="K116" s="12">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="L116" s="12">
-        <v>9.4</v>
-      </c>
-      <c r="M116" s="12">
-        <v>3.3</v>
-      </c>
-      <c r="N116" s="12">
-        <v>15</v>
-      </c>
-      <c r="O116" s="15">
-        <v>352</v>
+        <v>7.4</v>
+      </c>
+      <c r="M116" s="18">
+        <v>1.569</v>
+      </c>
+      <c r="N116" s="18">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="O116" s="18">
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="P116" s="18">
-        <v>1.7999999999999999E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="Q116" s="18">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="R116" s="18">
         <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R116" s="12">
+        <v>48.9</v>
       </c>
       <c r="S116" s="12">
         <v>5.7</v>
@@ -38433,28 +38432,28 @@
         <v>6.6950000000000003</v>
       </c>
       <c r="K117" s="12">
-        <v>7.6</v>
+        <v>1.9</v>
       </c>
       <c r="L117" s="12">
-        <v>10.6</v>
-      </c>
-      <c r="M117" s="12">
-        <v>1.9</v>
-      </c>
-      <c r="N117" s="12">
-        <v>7.6</v>
-      </c>
-      <c r="O117" s="15">
-        <v>237</v>
+        <v>7.4</v>
+      </c>
+      <c r="M117" s="18">
+        <v>2.8069999999999999</v>
+      </c>
+      <c r="N117" s="18">
+        <v>1.8149999999999999</v>
+      </c>
+      <c r="O117" s="18">
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="P117" s="18">
-        <v>9.1999999999999998E-2</v>
+        <v>0.1</v>
       </c>
       <c r="Q117" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="R117" s="18">
         <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="R117" s="12">
+        <v>10.4</v>
       </c>
       <c r="S117" s="12">
         <v>5.2</v>
@@ -38501,28 +38500,28 @@
         <v>4.7919999999999998</v>
       </c>
       <c r="K118" s="12">
-        <v>7.6</v>
+        <v>2</v>
       </c>
       <c r="L118" s="12">
-        <v>11.1</v>
-      </c>
-      <c r="M118" s="12">
-        <v>2</v>
-      </c>
-      <c r="N118" s="12">
-        <v>5.8</v>
-      </c>
-      <c r="O118" s="15">
-        <v>304</v>
+        <v>5.4</v>
+      </c>
+      <c r="M118" s="18">
+        <v>2.2919999999999998</v>
+      </c>
+      <c r="N118" s="18">
+        <v>1.589</v>
+      </c>
+      <c r="O118" s="18">
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="P118" s="18">
-        <v>8.5999999999999993E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="Q118" s="18">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="R118" s="18">
         <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="R118" s="12">
+        <v>26.4</v>
       </c>
       <c r="S118" s="12">
         <v>4.3</v>
@@ -38569,28 +38568,28 @@
         <v>8.327</v>
       </c>
       <c r="K119" s="12">
-        <v>7.6</v>
+        <v>3.2</v>
       </c>
       <c r="L119" s="12">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="M119" s="12">
-        <v>3.2</v>
-      </c>
-      <c r="N119" s="12">
-        <v>12.8</v>
-      </c>
-      <c r="O119" s="15">
-        <v>270</v>
+        <v>7.1</v>
+      </c>
+      <c r="M119" s="18">
+        <v>1.502</v>
+      </c>
+      <c r="N119" s="18">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="O119" s="18">
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="P119" s="18">
-        <v>4.2999999999999997E-2</v>
+        <v>0.107</v>
       </c>
       <c r="Q119" s="18">
-        <v>0.107</v>
-      </c>
-      <c r="R119" s="18">
         <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="R119" s="12">
+        <v>79.5</v>
       </c>
       <c r="S119" s="12">
         <v>5.3</v>
@@ -38637,28 +38636,28 @@
         <v>8.6530000000000005</v>
       </c>
       <c r="K120" s="12">
-        <v>7.8</v>
+        <v>2</v>
       </c>
       <c r="L120" s="12">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="M120" s="12">
-        <v>2</v>
-      </c>
-      <c r="N120" s="12">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="O120" s="15">
-        <v>198</v>
+        <v>5.8</v>
+      </c>
+      <c r="M120" s="18">
+        <v>2.9870000000000001</v>
+      </c>
+      <c r="N120" s="18">
+        <v>1.28</v>
+      </c>
+      <c r="O120" s="18">
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="P120" s="18">
-        <v>8.2000000000000003E-2</v>
+        <v>0.12</v>
       </c>
       <c r="Q120" s="18">
-        <v>0.12</v>
-      </c>
-      <c r="R120" s="18">
         <v>0.02</v>
+      </c>
+      <c r="R120" s="12">
+        <v>13.5</v>
       </c>
       <c r="S120" s="12">
         <v>4.3</v>
@@ -38705,28 +38704,28 @@
         <v>10.063000000000001</v>
       </c>
       <c r="K121" s="12">
-        <v>7.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L121" s="12">
-        <v>9.1</v>
-      </c>
-      <c r="M121" s="12">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="N121" s="12">
-        <v>7.8</v>
-      </c>
-      <c r="O121" s="15">
-        <v>243</v>
+        <v>6.5</v>
+      </c>
+      <c r="M121" s="18">
+        <v>2.4569999999999999</v>
+      </c>
+      <c r="N121" s="18">
+        <v>1.52</v>
+      </c>
+      <c r="O121" s="18">
+        <v>0.27</v>
       </c>
       <c r="P121" s="18">
-        <v>0.27</v>
+        <v>0.129</v>
       </c>
       <c r="Q121" s="18">
-        <v>0.129</v>
-      </c>
-      <c r="R121" s="18">
         <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="R121" s="12">
+        <v>17.8</v>
       </c>
       <c r="S121" s="12">
         <v>5.2</v>
@@ -38773,28 +38772,28 @@
         <v>9.4130000000000003</v>
       </c>
       <c r="K122" s="12">
-        <v>7.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L122" s="12">
-        <v>8.6</v>
-      </c>
-      <c r="M122" s="12">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="N122" s="12">
-        <v>8.1</v>
-      </c>
-      <c r="O122" s="15">
-        <v>227</v>
+        <v>6</v>
+      </c>
+      <c r="M122" s="18">
+        <v>2.0640000000000001</v>
+      </c>
+      <c r="N122" s="18">
+        <v>1.508</v>
+      </c>
+      <c r="O122" s="18">
+        <v>0.186</v>
       </c>
       <c r="P122" s="18">
-        <v>0.186</v>
+        <v>0.106</v>
       </c>
       <c r="Q122" s="18">
-        <v>0.106</v>
-      </c>
-      <c r="R122" s="18">
         <v>0.05</v>
+      </c>
+      <c r="R122" s="12">
+        <v>12.2</v>
       </c>
       <c r="S122" s="12">
         <v>5.2</v>
@@ -38841,28 +38840,28 @@
         <v>6.016</v>
       </c>
       <c r="K123" s="12">
-        <v>7.7</v>
+        <v>2.4</v>
       </c>
       <c r="L123" s="12">
-        <v>10.8</v>
-      </c>
-      <c r="M123" s="12">
-        <v>2.4</v>
-      </c>
-      <c r="N123" s="12">
-        <v>16</v>
-      </c>
-      <c r="O123" s="15">
-        <v>273</v>
+        <v>7.6</v>
+      </c>
+      <c r="M123" s="18">
+        <v>1.798</v>
+      </c>
+      <c r="N123" s="18">
+        <v>1.014</v>
+      </c>
+      <c r="O123" s="18">
+        <v>0.1</v>
       </c>
       <c r="P123" s="18">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="Q123" s="18">
-        <v>0.125</v>
-      </c>
-      <c r="R123" s="18">
         <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="R123" s="12">
+        <v>21.5</v>
       </c>
       <c r="S123" s="12">
         <v>6</v>
@@ -38909,28 +38908,28 @@
         <v>6.0229999999999997</v>
       </c>
       <c r="K124" s="12">
-        <v>6.9</v>
+        <v>3.7</v>
       </c>
       <c r="L124" s="12">
-        <v>8.1</v>
-      </c>
-      <c r="M124" s="12">
-        <v>3.7</v>
-      </c>
-      <c r="N124" s="12">
-        <v>14.5</v>
-      </c>
-      <c r="O124" s="15">
-        <v>270</v>
+        <v>8.5</v>
+      </c>
+      <c r="M124" s="18">
+        <v>2.6110000000000002</v>
+      </c>
+      <c r="N124" s="18">
+        <v>1.2210000000000001</v>
+      </c>
+      <c r="O124" s="18">
+        <v>0.45200000000000001</v>
       </c>
       <c r="P124" s="18">
-        <v>0.45200000000000001</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="Q124" s="18">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="R124" s="18">
         <v>0.104</v>
+      </c>
+      <c r="R124" s="12">
+        <v>12</v>
       </c>
       <c r="S124" s="12">
         <v>7</v>
@@ -38977,28 +38976,28 @@
         <v>6.1840000000000002</v>
       </c>
       <c r="K125" s="12">
-        <v>6.8</v>
+        <v>2.8</v>
       </c>
       <c r="L125" s="12">
-        <v>7.1</v>
-      </c>
-      <c r="M125" s="12">
-        <v>2.8</v>
-      </c>
-      <c r="N125" s="12">
-        <v>7.5</v>
-      </c>
-      <c r="O125" s="15">
-        <v>263</v>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M125" s="18">
+        <v>2.2029999999999998</v>
+      </c>
+      <c r="N125" s="18">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="O125" s="18">
+        <v>0.224</v>
       </c>
       <c r="P125" s="18">
-        <v>0.224</v>
+        <v>0.126</v>
       </c>
       <c r="Q125" s="18">
-        <v>0.126</v>
-      </c>
-      <c r="R125" s="18">
         <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="R125" s="12">
+        <v>5.5</v>
       </c>
       <c r="S125" s="12">
         <v>7.6</v>
@@ -39045,28 +39044,28 @@
         <v>7.0510000000000002</v>
       </c>
       <c r="K126" s="12">
-        <v>6.7</v>
+        <v>1.9</v>
       </c>
       <c r="L126" s="12">
-        <v>6.4</v>
-      </c>
-      <c r="M126" s="12">
-        <v>1.9</v>
-      </c>
-      <c r="N126" s="12">
-        <v>10.3</v>
-      </c>
-      <c r="O126" s="15">
-        <v>248</v>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M126" s="18">
+        <v>1.9970000000000001</v>
+      </c>
+      <c r="N126" s="18">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="O126" s="18">
+        <v>0.152</v>
       </c>
       <c r="P126" s="18">
-        <v>0.152</v>
+        <v>0.121</v>
       </c>
       <c r="Q126" s="18">
-        <v>0.121</v>
-      </c>
-      <c r="R126" s="18">
         <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="R126" s="12">
+        <v>5.5</v>
       </c>
       <c r="S126" s="12">
         <v>8.1999999999999993</v>
@@ -39113,28 +39112,28 @@
         <v>4.774</v>
       </c>
       <c r="K127" s="12">
-        <v>7.3</v>
+        <v>3.7</v>
       </c>
       <c r="L127" s="12">
-        <v>7.3</v>
-      </c>
-      <c r="M127" s="12">
-        <v>3.7</v>
-      </c>
-      <c r="N127" s="12">
-        <v>8</v>
-      </c>
-      <c r="O127" s="15">
-        <v>260</v>
+        <v>11.7</v>
+      </c>
+      <c r="M127" s="18">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="N127" s="18">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="O127" s="18">
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="P127" s="18">
-        <v>4.9000000000000002E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="Q127" s="18">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="R127" s="18">
         <v>2.7E-2</v>
+      </c>
+      <c r="R127" s="12">
+        <v>27.3</v>
       </c>
       <c r="S127" s="12">
         <v>9.1999999999999993</v>
@@ -39181,28 +39180,28 @@
         <v>4.0179999999999998</v>
       </c>
       <c r="K128" s="12">
-        <v>7.6</v>
+        <v>3</v>
       </c>
       <c r="L128" s="12">
-        <v>6.6</v>
-      </c>
-      <c r="M128" s="12">
-        <v>3</v>
-      </c>
-      <c r="N128" s="12">
-        <v>9</v>
-      </c>
-      <c r="O128" s="15">
-        <v>249</v>
+        <v>12.4</v>
+      </c>
+      <c r="M128" s="18">
+        <v>1.4830000000000001</v>
+      </c>
+      <c r="N128" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="O128" s="18">
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="P128" s="18">
-        <v>5.3999999999999999E-2</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="Q128" s="18">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="R128" s="18">
         <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="R128" s="12">
+        <v>17.100000000000001</v>
       </c>
       <c r="S128" s="12">
         <v>9.1</v>
@@ -39249,28 +39248,28 @@
         <v>117.544</v>
       </c>
       <c r="K129" s="12">
-        <v>7.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L129" s="12">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="M129" s="12">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="N129" s="12">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="O129" s="15">
-        <v>120</v>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M129" s="18">
+        <v>2.1549999999999998</v>
+      </c>
+      <c r="N129" s="18">
+        <v>1.216</v>
+      </c>
+      <c r="O129" s="18">
+        <v>0.10199999999999999</v>
       </c>
       <c r="P129" s="18">
-        <v>0.10199999999999999</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="Q129" s="18">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="R129" s="18">
         <v>0.13100000000000001</v>
+      </c>
+      <c r="R129" s="12">
+        <v>10</v>
       </c>
       <c r="S129" s="12">
         <v>6.5</v>
@@ -39317,28 +39316,28 @@
         <v>6.0010000000000003</v>
       </c>
       <c r="K130" s="12">
-        <v>7.6</v>
+        <v>1.6</v>
       </c>
       <c r="L130" s="12">
-        <v>7.9</v>
-      </c>
-      <c r="M130" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="N130" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="O130" s="15">
-        <v>265</v>
+        <v>5.8</v>
+      </c>
+      <c r="M130" s="18">
+        <v>2.5819999999999999</v>
+      </c>
+      <c r="N130" s="18">
+        <v>1.758</v>
+      </c>
+      <c r="O130" s="18">
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="P130" s="18">
-        <v>6.0999999999999999E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="Q130" s="18">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="R130" s="18">
         <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="R130" s="12">
+        <v>7.8</v>
       </c>
       <c r="S130" s="12">
         <v>4.9000000000000004</v>
@@ -39385,28 +39384,28 @@
         <v>4.7519999999999998</v>
       </c>
       <c r="K131" s="12">
-        <v>7.5</v>
+        <v>4.7</v>
       </c>
       <c r="L131" s="12">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="M131" s="12">
-        <v>4.7</v>
-      </c>
-      <c r="N131" s="12">
-        <v>8.5</v>
-      </c>
-      <c r="O131" s="15">
-        <v>302</v>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M131" s="18">
+        <v>1.117</v>
+      </c>
+      <c r="N131" s="18">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="O131" s="18">
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="P131" s="18">
-        <v>8.0000000000000002E-3</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="Q131" s="18">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="R131" s="18">
         <v>5.5E-2</v>
+      </c>
+      <c r="R131" s="12">
+        <v>49.5</v>
       </c>
       <c r="S131" s="12">
         <v>6.5</v>
@@ -39453,28 +39452,28 @@
         <v>2.0659999999999998</v>
       </c>
       <c r="K132" s="12">
-        <v>7.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L132" s="12">
-        <v>6.6</v>
-      </c>
-      <c r="M132" s="12">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="N132" s="12">
-        <v>7.4</v>
-      </c>
-      <c r="O132" s="15">
-        <v>402</v>
+        <v>13.3</v>
+      </c>
+      <c r="M132" s="18">
+        <v>1.2849999999999999</v>
+      </c>
+      <c r="N132" s="18">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="O132" s="18">
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="P132" s="18">
-        <v>1.0999999999999999E-2</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="Q132" s="18">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="R132" s="18">
         <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="R132" s="12">
+        <v>29</v>
       </c>
       <c r="S132" s="12">
         <v>8.5</v>
@@ -39521,28 +39520,28 @@
         <v>4.4480000000000004</v>
       </c>
       <c r="K133" s="12">
-        <v>7.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L133" s="12">
-        <v>7.7</v>
-      </c>
-      <c r="M133" s="12">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="N133" s="12">
-        <v>10.1</v>
-      </c>
-      <c r="O133" s="15">
-        <v>293</v>
+        <v>10.9</v>
+      </c>
+      <c r="M133" s="18">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="N133" s="18">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="O133" s="18">
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="P133" s="18">
-        <v>1.0999999999999999E-2</v>
+        <v>0.113</v>
       </c>
       <c r="Q133" s="18">
-        <v>0.113</v>
-      </c>
-      <c r="R133" s="18">
         <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="R133" s="12">
+        <v>52.3</v>
       </c>
       <c r="S133" s="12">
         <v>7.8</v>
@@ -39589,28 +39588,28 @@
         <v>0.85399999999999998</v>
       </c>
       <c r="K134" s="12">
-        <v>7.7</v>
+        <v>3.2</v>
       </c>
       <c r="L134" s="12">
-        <v>8.5</v>
-      </c>
-      <c r="M134" s="12">
-        <v>3.2</v>
-      </c>
-      <c r="N134" s="12">
-        <v>7.7</v>
-      </c>
-      <c r="O134" s="15">
-        <v>356</v>
+        <v>10.5</v>
+      </c>
+      <c r="M134" s="18">
+        <v>1.2509999999999999</v>
+      </c>
+      <c r="N134" s="18">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="O134" s="18">
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="P134" s="18">
-        <v>1.2999999999999999E-2</v>
+        <v>0.107</v>
       </c>
       <c r="Q134" s="18">
-        <v>0.107</v>
-      </c>
-      <c r="R134" s="18">
         <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="R134" s="12">
+        <v>35</v>
       </c>
       <c r="S134" s="12">
         <v>7.5</v>
@@ -39657,28 +39656,28 @@
         <v>4.952</v>
       </c>
       <c r="K135" s="12">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="L135" s="12">
-        <v>6.3</v>
-      </c>
-      <c r="M135" s="12">
-        <v>2.4</v>
-      </c>
-      <c r="N135" s="12">
-        <v>5</v>
-      </c>
-      <c r="O135" s="15">
-        <v>251</v>
+        <v>7.3</v>
+      </c>
+      <c r="M135" s="18">
+        <v>1.113</v>
+      </c>
+      <c r="N135" s="18">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="O135" s="18">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="P135" s="18">
-        <v>7.0999999999999994E-2</v>
+        <v>0.107</v>
       </c>
       <c r="Q135" s="18">
-        <v>0.107</v>
-      </c>
-      <c r="R135" s="18">
         <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="R135" s="12">
+        <v>11.6</v>
       </c>
       <c r="S135" s="12">
         <v>6</v>
@@ -39725,28 +39724,28 @@
         <v>0.88900000000000001</v>
       </c>
       <c r="K136" s="12">
-        <v>7.3</v>
+        <v>2.5</v>
       </c>
       <c r="L136" s="12">
-        <v>6.7</v>
-      </c>
-      <c r="M136" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="N136" s="12">
-        <v>6.5</v>
-      </c>
-      <c r="O136" s="15">
-        <v>497</v>
+        <v>8.1</v>
+      </c>
+      <c r="M136" s="18">
+        <v>1.238</v>
+      </c>
+      <c r="N136" s="18">
+        <v>0.72</v>
+      </c>
+      <c r="O136" s="18">
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="P136" s="18">
-        <v>8.9999999999999993E-3</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="Q136" s="18">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="R136" s="18">
         <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="R136" s="12">
+        <v>21.4</v>
       </c>
       <c r="S136" s="12">
         <v>7</v>
@@ -39793,28 +39792,28 @@
         <v>121.80800000000001</v>
       </c>
       <c r="K137" s="12">
-        <v>6.6</v>
+        <v>1.9</v>
       </c>
       <c r="L137" s="12">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="M137" s="12">
-        <v>1.9</v>
-      </c>
-      <c r="N137" s="12">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="O137" s="15">
-        <v>117</v>
+        <v>7.6</v>
+      </c>
+      <c r="M137" s="18">
+        <v>1.9950000000000001</v>
+      </c>
+      <c r="N137" s="18">
+        <v>1.488</v>
+      </c>
+      <c r="O137" s="18">
+        <v>0.02</v>
       </c>
       <c r="P137" s="18">
-        <v>0.02</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="Q137" s="18">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="R137" s="18">
         <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="R137" s="12">
+        <v>3</v>
       </c>
       <c r="S137" s="12">
         <v>5.2</v>
@@ -39861,28 +39860,28 @@
         <v>19.254000000000001</v>
       </c>
       <c r="K138" s="12">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="L138" s="12">
-        <v>9.1</v>
-      </c>
-      <c r="M138" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="N138" s="12">
-        <v>8.6</v>
-      </c>
-      <c r="O138" s="15">
-        <v>159</v>
+        <v>4.8</v>
+      </c>
+      <c r="M138" s="18">
+        <v>2.214</v>
+      </c>
+      <c r="N138" s="18">
+        <v>1.6779999999999999</v>
+      </c>
+      <c r="O138" s="18">
+        <v>2.3E-2</v>
       </c>
       <c r="P138" s="18">
-        <v>2.3E-2</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="Q138" s="18">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="R138" s="18">
         <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="R138" s="12">
+        <v>1.6</v>
       </c>
       <c r="S138" s="12">
         <v>4</v>
@@ -39929,28 +39928,28 @@
         <v>11.438000000000001</v>
       </c>
       <c r="K139" s="12">
-        <v>7.6</v>
+        <v>1.8</v>
       </c>
       <c r="L139" s="12">
-        <v>10.7</v>
-      </c>
-      <c r="M139" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="N139" s="12">
-        <v>5.6</v>
-      </c>
-      <c r="O139" s="15">
-        <v>163</v>
+        <v>4.8</v>
+      </c>
+      <c r="M139" s="18">
+        <v>1.8220000000000001</v>
+      </c>
+      <c r="N139" s="18">
+        <v>0.19</v>
+      </c>
+      <c r="O139" s="18">
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="P139" s="18">
-        <v>7.0000000000000001E-3</v>
+        <v>6.2E-2</v>
       </c>
       <c r="Q139" s="18">
-        <v>6.2E-2</v>
-      </c>
-      <c r="R139" s="18">
         <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R139" s="12">
+        <v>10.6</v>
       </c>
       <c r="S139" s="12">
         <v>5</v>
@@ -39997,28 +39996,28 @@
         <v>10.997999999999999</v>
       </c>
       <c r="K140" s="12">
-        <v>7.3</v>
+        <v>3</v>
       </c>
       <c r="L140" s="12">
-        <v>8.4</v>
-      </c>
-      <c r="M140" s="12">
-        <v>3</v>
-      </c>
-      <c r="N140" s="12">
-        <v>10.9</v>
-      </c>
-      <c r="O140" s="15">
-        <v>164</v>
+        <v>6.6</v>
+      </c>
+      <c r="M140" s="18">
+        <v>1.5740000000000001</v>
+      </c>
+      <c r="N140" s="18">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="O140" s="18">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="P140" s="18">
-        <v>5.0000000000000001E-3</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="Q140" s="18">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="R140" s="18">
         <v>0.03</v>
+      </c>
+      <c r="R140" s="12">
+        <v>49.6</v>
       </c>
       <c r="S140" s="12">
         <v>4</v>
@@ -40065,28 +40064,28 @@
         <v>4.1289999999999996</v>
       </c>
       <c r="K141" s="12">
-        <v>7.6</v>
+        <v>1.9</v>
       </c>
       <c r="L141" s="12">
-        <v>10.5</v>
-      </c>
-      <c r="M141" s="12">
-        <v>1.9</v>
-      </c>
-      <c r="N141" s="12">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="O141" s="15">
-        <v>243</v>
+        <v>5</v>
+      </c>
+      <c r="M141" s="18">
+        <v>2.077</v>
+      </c>
+      <c r="N141" s="18">
+        <v>1.1930000000000001</v>
+      </c>
+      <c r="O141" s="18">
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="P141" s="18">
-        <v>8.6999999999999994E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="Q141" s="18">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="R141" s="18">
         <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="R141" s="12">
+        <v>12.1</v>
       </c>
       <c r="S141" s="12">
         <v>5</v>
@@ -40133,28 +40132,28 @@
         <v>3.3540000000000001</v>
       </c>
       <c r="K142" s="12">
-        <v>8.3000000000000007</v>
+        <v>3.3</v>
       </c>
       <c r="L142" s="12">
-        <v>11.4</v>
-      </c>
-      <c r="M142" s="12">
-        <v>3.3</v>
-      </c>
-      <c r="N142" s="12">
-        <v>6.6</v>
-      </c>
-      <c r="O142" s="15">
-        <v>285</v>
+        <v>7.5</v>
+      </c>
+      <c r="M142" s="18">
+        <v>1.9019999999999999</v>
+      </c>
+      <c r="N142" s="18">
+        <v>1.298</v>
+      </c>
+      <c r="O142" s="18">
+        <v>0.11</v>
       </c>
       <c r="P142" s="18">
-        <v>0.11</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="Q142" s="18">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="R142" s="18">
         <v>1.9E-2</v>
+      </c>
+      <c r="R142" s="12">
+        <v>27.3</v>
       </c>
       <c r="S142" s="12">
         <v>6.8</v>
@@ -40201,28 +40200,28 @@
         <v>15.491</v>
       </c>
       <c r="K143" s="12">
-        <v>7.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L143" s="12">
-        <v>12.3</v>
-      </c>
-      <c r="M143" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N143" s="12">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="O143" s="15">
-        <v>202</v>
+        <v>4.8</v>
+      </c>
+      <c r="M143" s="18">
+        <v>1.718</v>
+      </c>
+      <c r="N143" s="18">
+        <v>1.248</v>
+      </c>
+      <c r="O143" s="18">
+        <v>1.2E-2</v>
       </c>
       <c r="P143" s="18">
-        <v>1.2E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="Q143" s="18">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="R143" s="18">
         <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="R143" s="12">
+        <v>3.6</v>
       </c>
       <c r="S143" s="12">
         <v>4.8</v>
@@ -40269,28 +40268,28 @@
         <v>4.3120000000000003</v>
       </c>
       <c r="K144" s="12">
-        <v>7.7</v>
+        <v>1.2</v>
       </c>
       <c r="L144" s="12">
-        <v>10.6</v>
-      </c>
-      <c r="M144" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="N144" s="12">
-        <v>3.3</v>
-      </c>
-      <c r="O144" s="15">
-        <v>243</v>
+        <v>4.7</v>
+      </c>
+      <c r="M144" s="18">
+        <v>2.0840000000000001</v>
+      </c>
+      <c r="N144" s="18">
+        <v>1.7170000000000001</v>
+      </c>
+      <c r="O144" s="18">
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="P144" s="18">
-        <v>8.9999999999999993E-3</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="Q144" s="18">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="R144" s="18">
         <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="R144" s="12">
+        <v>4</v>
       </c>
       <c r="S144" s="12">
         <v>4.0999999999999996</v>
@@ -40337,28 +40336,28 @@
         <v>3.6320000000000001</v>
       </c>
       <c r="K145" s="12">
-        <v>8.1999999999999993</v>
+        <v>1.8</v>
       </c>
       <c r="L145" s="12">
-        <v>10.7</v>
-      </c>
-      <c r="M145" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="N145" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="O145" s="15">
-        <v>312</v>
+        <v>5.5</v>
+      </c>
+      <c r="M145" s="18">
+        <v>2.09</v>
+      </c>
+      <c r="N145" s="18">
+        <v>1.617</v>
+      </c>
+      <c r="O145" s="18">
+        <v>1.4E-2</v>
       </c>
       <c r="P145" s="18">
-        <v>1.4E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="Q145" s="18">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="R145" s="18">
         <v>1.6E-2</v>
+      </c>
+      <c r="R145" s="12">
+        <v>7.1</v>
       </c>
       <c r="S145" s="12">
         <v>5.5</v>
@@ -40405,28 +40404,28 @@
         <v>4.0010000000000003</v>
       </c>
       <c r="K146" s="12">
-        <v>8.1</v>
+        <v>2.6</v>
       </c>
       <c r="L146" s="12">
-        <v>11.3</v>
-      </c>
-      <c r="M146" s="12">
-        <v>2.6</v>
-      </c>
-      <c r="N146" s="12">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="O146" s="15">
-        <v>319</v>
+        <v>6.4</v>
+      </c>
+      <c r="M146" s="18">
+        <v>2.0510000000000002</v>
+      </c>
+      <c r="N146" s="18">
+        <v>1.633</v>
+      </c>
+      <c r="O146" s="18">
+        <v>1.4E-2</v>
       </c>
       <c r="P146" s="18">
-        <v>1.4E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="Q146" s="18">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="R146" s="18">
         <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="R146" s="12">
+        <v>27.1</v>
       </c>
       <c r="S146" s="12">
         <v>5.3</v>
@@ -40473,28 +40472,28 @@
         <v>0.88400000000000001</v>
       </c>
       <c r="K147" s="12">
-        <v>7.8</v>
+        <v>2</v>
       </c>
       <c r="L147" s="12">
-        <v>7.7</v>
-      </c>
-      <c r="M147" s="12">
-        <v>2</v>
-      </c>
-      <c r="N147" s="12">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O147" s="15">
-        <v>355</v>
+        <v>5.5</v>
+      </c>
+      <c r="M147" s="18">
+        <v>2.1219999999999999</v>
+      </c>
+      <c r="N147" s="18">
+        <v>1.5169999999999999</v>
+      </c>
+      <c r="O147" s="18">
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="P147" s="18">
-        <v>8.0000000000000002E-3</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="Q147" s="18">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="R147" s="18">
         <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="R147" s="12">
+        <v>20.9</v>
       </c>
       <c r="S147" s="12">
         <v>7.2</v>
@@ -40541,28 +40540,28 @@
         <v>3.706</v>
       </c>
       <c r="K148" s="12">
-        <v>6.9</v>
+        <v>1.6</v>
       </c>
       <c r="L148" s="12">
-        <v>9.5</v>
-      </c>
-      <c r="M148" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="N148" s="12">
-        <v>8.5</v>
-      </c>
-      <c r="O148" s="15">
-        <v>251</v>
+        <v>6.5</v>
+      </c>
+      <c r="M148" s="18">
+        <v>1.976</v>
+      </c>
+      <c r="N148" s="18">
+        <v>1.4730000000000001</v>
+      </c>
+      <c r="O148" s="18">
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="P148" s="18">
-        <v>3.5999999999999997E-2</v>
+        <v>0.128</v>
       </c>
       <c r="Q148" s="18">
-        <v>0.128</v>
-      </c>
-      <c r="R148" s="18">
         <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="R148" s="12">
+        <v>11.9</v>
       </c>
       <c r="S148" s="12">
         <v>5</v>
@@ -40609,28 +40608,28 @@
         <v>2.98</v>
       </c>
       <c r="K149" s="12">
-        <v>7.4</v>
+        <v>1.7</v>
       </c>
       <c r="L149" s="12">
-        <v>11.1</v>
-      </c>
-      <c r="M149" s="12">
-        <v>1.7</v>
-      </c>
-      <c r="N149" s="12">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="O149" s="15">
-        <v>310</v>
+        <v>6.7</v>
+      </c>
+      <c r="M149" s="18">
+        <v>1.9710000000000001</v>
+      </c>
+      <c r="N149" s="18">
+        <v>1.4670000000000001</v>
+      </c>
+      <c r="O149" s="18">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="P149" s="18">
-        <v>4.0000000000000001E-3</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Q149" s="18">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="R149" s="18">
         <v>2.7E-2</v>
+      </c>
+      <c r="R149" s="12">
+        <v>20.6</v>
       </c>
       <c r="S149" s="12">
         <v>5.6</v>
@@ -40677,28 +40676,28 @@
         <v>1.7090000000000001</v>
       </c>
       <c r="K150" s="12">
-        <v>7.7</v>
+        <v>1.8</v>
       </c>
       <c r="L150" s="12">
-        <v>13.1</v>
-      </c>
-      <c r="M150" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="N150" s="12">
-        <v>4</v>
-      </c>
-      <c r="O150" s="15">
-        <v>302</v>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M150" s="18">
+        <v>2.069</v>
+      </c>
+      <c r="N150" s="18">
+        <v>1.7</v>
+      </c>
+      <c r="O150" s="18">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="P150" s="18">
-        <v>5.0000000000000001E-3</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="Q150" s="18">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="R150" s="18">
         <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="R150" s="12">
+        <v>18.899999999999999</v>
       </c>
       <c r="S150" s="12">
         <v>5.3</v>
@@ -40745,28 +40744,28 @@
         <v>3.9409999999999998</v>
       </c>
       <c r="K151" s="12">
-        <v>7.6</v>
+        <v>2.8</v>
       </c>
       <c r="L151" s="12">
-        <v>10.7</v>
-      </c>
-      <c r="M151" s="12">
-        <v>2.8</v>
-      </c>
-      <c r="N151" s="12">
-        <v>6.9</v>
-      </c>
-      <c r="O151" s="15">
-        <v>313</v>
+        <v>5.2</v>
+      </c>
+      <c r="M151" s="18">
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="N151" s="18">
+        <v>1.607</v>
+      </c>
+      <c r="O151" s="18">
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="P151" s="18">
-        <v>8.0000000000000002E-3</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="Q151" s="18">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="R151" s="18">
         <v>1.9E-2</v>
+      </c>
+      <c r="R151" s="12">
+        <v>54.6</v>
       </c>
       <c r="S151" s="12">
         <v>5.3</v>
@@ -40813,28 +40812,28 @@
         <v>4.0979999999999999</v>
       </c>
       <c r="K152" s="12">
-        <v>8.1999999999999993</v>
+        <v>1.6</v>
       </c>
       <c r="L152" s="12">
-        <v>14.3</v>
-      </c>
-      <c r="M152" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="N152" s="12">
-        <v>3.2</v>
-      </c>
-      <c r="O152" s="15">
-        <v>295</v>
+        <v>4.2</v>
+      </c>
+      <c r="M152" s="18">
+        <v>2.383</v>
+      </c>
+      <c r="N152" s="18">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="O152" s="18">
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="P152" s="18">
-        <v>5.6000000000000001E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="Q152" s="18">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="R152" s="18">
         <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="R152" s="12">
+        <v>9.8000000000000007</v>
       </c>
       <c r="S152" s="12">
         <v>5</v>
@@ -40881,28 +40880,28 @@
         <v>3.6440000000000001</v>
       </c>
       <c r="K153" s="12">
-        <v>7.3</v>
+        <v>1.3</v>
       </c>
       <c r="L153" s="12">
-        <v>14.4</v>
-      </c>
-      <c r="M153" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="N153" s="12">
-        <v>3.8</v>
-      </c>
-      <c r="O153" s="15">
-        <v>330</v>
+        <v>3.9</v>
+      </c>
+      <c r="M153" s="18">
+        <v>2.9380000000000002</v>
+      </c>
+      <c r="N153" s="18">
+        <v>2.3540000000000001</v>
+      </c>
+      <c r="O153" s="18">
+        <v>0.153</v>
       </c>
       <c r="P153" s="18">
-        <v>0.153</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="Q153" s="18">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="R153" s="18">
         <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="R153" s="12">
+        <v>4.5</v>
       </c>
       <c r="S153" s="12">
         <v>4.5</v>
@@ -40949,28 +40948,28 @@
         <v>3.089</v>
       </c>
       <c r="K154" s="12">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="L154" s="12">
-        <v>12.5</v>
-      </c>
-      <c r="M154" s="12">
-        <v>1.4</v>
-      </c>
-      <c r="N154" s="12">
         <v>4</v>
       </c>
-      <c r="O154" s="15">
-        <v>337</v>
+      <c r="M154" s="18">
+        <v>2.7080000000000002</v>
+      </c>
+      <c r="N154" s="18">
+        <v>2.1440000000000001</v>
+      </c>
+      <c r="O154" s="18">
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="P154" s="18">
-        <v>9.2999999999999999E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="Q154" s="18">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="R154" s="18">
         <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="R154" s="12">
+        <v>4.9000000000000004</v>
       </c>
       <c r="S154" s="12">
         <v>4.5999999999999996</v>
@@ -41017,28 +41016,28 @@
         <v>2.9060000000000001</v>
       </c>
       <c r="K155" s="12">
-        <v>8.3000000000000007</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L155" s="12">
-        <v>9.9</v>
-      </c>
-      <c r="M155" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N155" s="12">
-        <v>2.9</v>
-      </c>
-      <c r="O155" s="15">
-        <v>360</v>
+        <v>4.5</v>
+      </c>
+      <c r="M155" s="18">
+        <v>2.61</v>
+      </c>
+      <c r="N155" s="18">
+        <v>2.3860000000000001</v>
+      </c>
+      <c r="O155" s="18">
+        <v>0.105</v>
       </c>
       <c r="P155" s="18">
-        <v>0.105</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="Q155" s="18">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="R155" s="18">
         <v>1.6E-2</v>
+      </c>
+      <c r="R155" s="12">
+        <v>6.5</v>
       </c>
       <c r="S155" s="12">
         <v>4.8</v>
@@ -41085,28 +41084,28 @@
         <v>2.7970000000000002</v>
       </c>
       <c r="K156" s="12">
-        <v>7.6</v>
+        <v>1.5</v>
       </c>
       <c r="L156" s="12">
-        <v>14.1</v>
-      </c>
-      <c r="M156" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="N156" s="12">
-        <v>3.3</v>
-      </c>
-      <c r="O156" s="15">
-        <v>394</v>
+        <v>3.4</v>
+      </c>
+      <c r="M156" s="18">
+        <v>2.8889999999999998</v>
+      </c>
+      <c r="N156" s="18">
+        <v>2.1280000000000001</v>
+      </c>
+      <c r="O156" s="18">
+        <v>0.20899999999999999</v>
       </c>
       <c r="P156" s="18">
-        <v>0.20899999999999999</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="Q156" s="18">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="R156" s="18">
         <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R156" s="12">
+        <v>6.2</v>
       </c>
       <c r="S156" s="12">
         <v>4.9000000000000004</v>
@@ -41153,28 +41152,28 @@
         <v>2.528</v>
       </c>
       <c r="K157" s="12">
-        <v>7.6</v>
+        <v>1.7</v>
       </c>
       <c r="L157" s="12">
-        <v>12.5</v>
-      </c>
-      <c r="M157" s="12">
-        <v>1.7</v>
-      </c>
-      <c r="N157" s="12">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="O157" s="15">
-        <v>341</v>
+        <v>3.9</v>
+      </c>
+      <c r="M157" s="18">
+        <v>2.8010000000000002</v>
+      </c>
+      <c r="N157" s="18">
+        <v>2.1040000000000001</v>
+      </c>
+      <c r="O157" s="18">
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="P157" s="18">
-        <v>4.5999999999999999E-2</v>
+        <v>0.08</v>
       </c>
       <c r="Q157" s="18">
-        <v>0.08</v>
-      </c>
-      <c r="R157" s="18">
         <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="R157" s="12">
+        <v>18.8</v>
       </c>
       <c r="S157" s="12">
         <v>3.4</v>
@@ -41221,28 +41220,28 @@
         <v>2.363</v>
       </c>
       <c r="K158" s="12">
-        <v>8.1</v>
+        <v>2.6</v>
       </c>
       <c r="L158" s="12">
-        <v>13.3</v>
-      </c>
-      <c r="M158" s="12">
-        <v>2.6</v>
-      </c>
-      <c r="N158" s="12">
-        <v>7.5</v>
-      </c>
-      <c r="O158" s="15">
-        <v>435</v>
+        <v>5.2</v>
+      </c>
+      <c r="M158" s="18">
+        <v>2.5390000000000001</v>
+      </c>
+      <c r="N158" s="18">
+        <v>2.0449999999999999</v>
+      </c>
+      <c r="O158" s="18">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="P158" s="18">
-        <v>6.0000000000000001E-3</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="Q158" s="18">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="R158" s="18">
         <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="R158" s="12">
+        <v>34.700000000000003</v>
       </c>
       <c r="S158" s="12">
         <v>4.2</v>
@@ -41289,28 +41288,28 @@
         <v>3.129</v>
       </c>
       <c r="K159" s="12">
-        <v>8.3000000000000007</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L159" s="12">
-        <v>12.1</v>
-      </c>
-      <c r="M159" s="12">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="N159" s="12">
-        <v>9.1</v>
-      </c>
-      <c r="O159" s="15">
-        <v>338</v>
+        <v>7.1</v>
+      </c>
+      <c r="M159" s="18">
+        <v>2.6640000000000001</v>
+      </c>
+      <c r="N159" s="18">
+        <v>1.996</v>
+      </c>
+      <c r="O159" s="18">
+        <v>0.26900000000000002</v>
       </c>
       <c r="P159" s="18">
-        <v>0.26900000000000002</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="Q159" s="18">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="R159" s="18">
         <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="R159" s="12">
+        <v>36.4</v>
       </c>
       <c r="S159" s="12">
         <v>5.3</v>
@@ -41357,28 +41356,28 @@
         <v>2.29</v>
       </c>
       <c r="K160" s="12">
-        <v>7.2</v>
+        <v>2.8</v>
       </c>
       <c r="L160" s="12">
-        <v>13.2</v>
-      </c>
-      <c r="M160" s="12">
-        <v>2.8</v>
-      </c>
-      <c r="N160" s="12">
-        <v>5</v>
-      </c>
-      <c r="O160" s="15">
-        <v>351</v>
+        <v>5.7</v>
+      </c>
+      <c r="M160" s="18">
+        <v>2.7389999999999999</v>
+      </c>
+      <c r="N160" s="18">
+        <v>2.0310000000000001</v>
+      </c>
+      <c r="O160" s="18">
+        <v>0.21</v>
       </c>
       <c r="P160" s="18">
-        <v>0.21</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="Q160" s="18">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="R160" s="18">
         <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="R160" s="12">
+        <v>32.4</v>
       </c>
       <c r="S160" s="12">
         <v>4.8</v>
@@ -41425,28 +41424,28 @@
         <v>2.738</v>
       </c>
       <c r="K161" s="12">
-        <v>8.1</v>
+        <v>2.9</v>
       </c>
       <c r="L161" s="12">
-        <v>14.2</v>
-      </c>
-      <c r="M161" s="12">
-        <v>2.9</v>
-      </c>
-      <c r="N161" s="12">
-        <v>10.7</v>
-      </c>
-      <c r="O161" s="15">
-        <v>305</v>
+        <v>6.6</v>
+      </c>
+      <c r="M161" s="18">
+        <v>2.42</v>
+      </c>
+      <c r="N161" s="18">
+        <v>1.889</v>
+      </c>
+      <c r="O161" s="18">
+        <v>0.02</v>
       </c>
       <c r="P161" s="18">
-        <v>0.02</v>
+        <v>0.111</v>
       </c>
       <c r="Q161" s="18">
-        <v>0.111</v>
-      </c>
-      <c r="R161" s="18">
         <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="R161" s="12">
+        <v>31.6</v>
       </c>
       <c r="S161" s="12">
         <v>6.1</v>
@@ -41493,28 +41492,28 @@
         <v>2.5510000000000002</v>
       </c>
       <c r="K162" s="12">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="L162" s="12">
-        <v>13</v>
-      </c>
-      <c r="M162" s="12">
-        <v>3.1</v>
-      </c>
-      <c r="N162" s="12">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="O162" s="15">
-        <v>339</v>
+        <v>6.8</v>
+      </c>
+      <c r="M162" s="18">
+        <v>2.1840000000000002</v>
+      </c>
+      <c r="N162" s="18">
+        <v>1.6</v>
+      </c>
+      <c r="O162" s="18">
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="P162" s="18">
-        <v>2.1999999999999999E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="Q162" s="18">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="R162" s="18">
         <v>1.4E-2</v>
+      </c>
+      <c r="R162" s="12">
+        <v>63.8</v>
       </c>
       <c r="S162" s="12">
         <v>6.2</v>
@@ -41561,28 +41560,28 @@
         <v>1.663</v>
       </c>
       <c r="K163" s="12">
-        <v>8.3000000000000007</v>
+        <v>4.5</v>
       </c>
       <c r="L163" s="12">
-        <v>11.9</v>
-      </c>
-      <c r="M163" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="N163" s="12">
-        <v>17.5</v>
-      </c>
-      <c r="O163" s="15">
-        <v>352</v>
+        <v>8.4</v>
+      </c>
+      <c r="M163" s="18">
+        <v>1.778</v>
+      </c>
+      <c r="N163" s="18">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="O163" s="18">
+        <v>2.4E-2</v>
       </c>
       <c r="P163" s="18">
-        <v>2.4E-2</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="Q163" s="18">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="R163" s="18">
         <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R163" s="12">
+        <v>81.7</v>
       </c>
       <c r="S163" s="12">
         <v>7.2</v>
@@ -41629,28 +41628,28 @@
         <v>2.2589999999999999</v>
       </c>
       <c r="K164" s="12">
-        <v>8</v>
+        <v>4.3</v>
       </c>
       <c r="L164" s="12">
-        <v>11.9</v>
-      </c>
-      <c r="M164" s="12">
-        <v>4.3</v>
-      </c>
-      <c r="N164" s="12">
-        <v>13.6</v>
-      </c>
-      <c r="O164" s="15">
-        <v>362</v>
+        <v>9</v>
+      </c>
+      <c r="M164" s="18">
+        <v>1.8480000000000001</v>
+      </c>
+      <c r="N164" s="18">
+        <v>1.054</v>
+      </c>
+      <c r="O164" s="18">
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="P164" s="18">
-        <v>4.3999999999999997E-2</v>
+        <v>0.184</v>
       </c>
       <c r="Q164" s="18">
-        <v>0.184</v>
-      </c>
-      <c r="R164" s="18">
         <v>0.01</v>
+      </c>
+      <c r="R164" s="12">
+        <v>76.5</v>
       </c>
       <c r="S164" s="12">
         <v>7.2</v>
@@ -41697,28 +41696,28 @@
         <v>1.744</v>
       </c>
       <c r="K165" s="12">
-        <v>8.9</v>
+        <v>4</v>
       </c>
       <c r="L165" s="12">
-        <v>13</v>
-      </c>
-      <c r="M165" s="12">
-        <v>4</v>
-      </c>
-      <c r="N165" s="12">
-        <v>19</v>
-      </c>
-      <c r="O165" s="15">
-        <v>335</v>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M165" s="18">
+        <v>1.73</v>
+      </c>
+      <c r="N165" s="18">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="O165" s="18">
+        <v>2.4E-2</v>
       </c>
       <c r="P165" s="18">
-        <v>2.4E-2</v>
+        <v>0.182</v>
       </c>
       <c r="Q165" s="18">
-        <v>0.182</v>
-      </c>
-      <c r="R165" s="18">
         <v>0.01</v>
+      </c>
+      <c r="R165" s="12">
+        <v>70.7</v>
       </c>
       <c r="S165" s="12">
         <v>7.9</v>
@@ -41765,28 +41764,28 @@
         <v>2.339</v>
       </c>
       <c r="K166" s="12">
-        <v>8.3000000000000007</v>
+        <v>4.8</v>
       </c>
       <c r="L166" s="12">
-        <v>13.3</v>
-      </c>
-      <c r="M166" s="12">
-        <v>4.8</v>
-      </c>
-      <c r="N166" s="12">
-        <v>17.8</v>
-      </c>
-      <c r="O166" s="15">
-        <v>300</v>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M166" s="18">
+        <v>1.657</v>
+      </c>
+      <c r="N166" s="18">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="O166" s="18">
+        <v>0.05</v>
       </c>
       <c r="P166" s="18">
-        <v>0.05</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="Q166" s="18">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="R166" s="18">
         <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="R166" s="12">
+        <v>79</v>
       </c>
       <c r="S166" s="12">
         <v>7</v>
@@ -41833,28 +41832,28 @@
         <v>1.744</v>
       </c>
       <c r="K167" s="12">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="L167" s="12">
-        <v>11.4</v>
-      </c>
-      <c r="M167" s="12">
-        <v>4</v>
-      </c>
-      <c r="N167" s="12">
-        <v>17.3</v>
-      </c>
-      <c r="O167" s="15">
-        <v>334</v>
+        <v>8.6</v>
+      </c>
+      <c r="M167" s="18">
+        <v>1.246</v>
+      </c>
+      <c r="N167" s="18">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="O167" s="18">
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="P167" s="18">
-        <v>4.1000000000000002E-2</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="Q167" s="18">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="R167" s="18">
         <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="R167" s="12">
+        <v>32.6</v>
       </c>
       <c r="S167" s="12">
         <v>5.5</v>
@@ -41901,28 +41900,28 @@
         <v>2.1539999999999999</v>
       </c>
       <c r="K168" s="12">
-        <v>8.3000000000000007</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L168" s="12">
-        <v>13.1</v>
-      </c>
-      <c r="M168" s="12">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="N168" s="12">
-        <v>12.6</v>
-      </c>
-      <c r="O168" s="15">
-        <v>330</v>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="M168" s="18">
+        <v>1.5640000000000001</v>
+      </c>
+      <c r="N168" s="18">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="O168" s="18">
+        <v>0.35699999999999998</v>
       </c>
       <c r="P168" s="18">
-        <v>0.35699999999999998</v>
+        <v>0.151</v>
       </c>
       <c r="Q168" s="18">
-        <v>0.151</v>
-      </c>
-      <c r="R168" s="18">
         <v>1.2E-2</v>
+      </c>
+      <c r="R168" s="12">
+        <v>89.6</v>
       </c>
       <c r="S168" s="12">
         <v>7.8</v>
@@ -41969,28 +41968,28 @@
         <v>1.7110000000000001</v>
       </c>
       <c r="K169" s="12">
-        <v>8.1999999999999993</v>
+        <v>3.8</v>
       </c>
       <c r="L169" s="12">
-        <v>9</v>
-      </c>
-      <c r="M169" s="12">
-        <v>3.8</v>
-      </c>
-      <c r="N169" s="12">
-        <v>12.8</v>
-      </c>
-      <c r="O169" s="15">
-        <v>381</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M169" s="18">
+        <v>1.651</v>
+      </c>
+      <c r="N169" s="18">
+        <v>0.82</v>
+      </c>
+      <c r="O169" s="18">
+        <v>0.26300000000000001</v>
       </c>
       <c r="P169" s="18">
-        <v>0.26300000000000001</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="Q169" s="18">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="R169" s="18">
         <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="R169" s="12">
+        <v>55.9</v>
       </c>
       <c r="S169" s="12">
         <v>7.5</v>
@@ -42037,28 +42036,28 @@
         <v>2.202</v>
       </c>
       <c r="K170" s="12">
-        <v>8.1</v>
+        <v>5.9</v>
       </c>
       <c r="L170" s="12">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="M170" s="12">
-        <v>5.9</v>
-      </c>
-      <c r="N170" s="12">
-        <v>14</v>
-      </c>
-      <c r="O170" s="15">
-        <v>236</v>
+        <v>12.6</v>
+      </c>
+      <c r="M170" s="18">
+        <v>1.232</v>
+      </c>
+      <c r="N170" s="18">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="O170" s="18">
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="P170" s="18">
-        <v>1.7999999999999999E-2</v>
+        <v>0.214</v>
       </c>
       <c r="Q170" s="18">
-        <v>0.214</v>
-      </c>
-      <c r="R170" s="18">
         <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R170" s="12">
+        <v>60.9</v>
       </c>
       <c r="S170" s="12">
         <v>9.3000000000000007</v>
@@ -42105,28 +42104,28 @@
         <v>6.4050000000000002</v>
       </c>
       <c r="K171" s="12">
-        <v>7.9</v>
+        <v>3.7</v>
       </c>
       <c r="L171" s="12">
-        <v>10</v>
-      </c>
-      <c r="M171" s="12">
-        <v>3.7</v>
-      </c>
-      <c r="N171" s="12">
-        <v>10.8</v>
-      </c>
-      <c r="O171" s="15">
-        <v>292</v>
+        <v>9.1</v>
+      </c>
+      <c r="M171" s="18">
+        <v>1.3260000000000001</v>
+      </c>
+      <c r="N171" s="18">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="O171" s="18">
+        <v>0.14599999999999999</v>
       </c>
       <c r="P171" s="18">
-        <v>0.14599999999999999</v>
+        <v>0.159</v>
       </c>
       <c r="Q171" s="18">
-        <v>0.159</v>
-      </c>
-      <c r="R171" s="18">
         <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R171" s="12">
+        <v>25</v>
       </c>
       <c r="S171" s="12">
         <v>5</v>
@@ -42173,28 +42172,28 @@
         <v>2.105</v>
       </c>
       <c r="K172" s="12">
-        <v>8.4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L172" s="12">
         <v>8.9</v>
       </c>
-      <c r="M172" s="12">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="N172" s="12">
-        <v>14.3</v>
-      </c>
-      <c r="O172" s="15">
-        <v>230</v>
+      <c r="M172" s="18">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="N172" s="18">
+        <v>0.158</v>
+      </c>
+      <c r="O172" s="18">
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="P172" s="18">
-        <v>2.1999999999999999E-2</v>
+        <v>0.128</v>
       </c>
       <c r="Q172" s="18">
-        <v>0.128</v>
-      </c>
-      <c r="R172" s="18">
         <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="R172" s="12">
+        <v>64.7</v>
       </c>
       <c r="S172" s="12">
         <v>6.9</v>
@@ -42241,28 +42240,28 @@
         <v>1.056</v>
       </c>
       <c r="K173" s="12">
-        <v>8</v>
+        <v>3.9</v>
       </c>
       <c r="L173" s="12">
-        <v>9.1</v>
-      </c>
-      <c r="M173" s="12">
-        <v>3.9</v>
-      </c>
-      <c r="N173" s="12">
-        <v>9.1</v>
-      </c>
-      <c r="O173" s="15">
-        <v>475</v>
+        <v>8.6</v>
+      </c>
+      <c r="M173" s="18">
+        <v>1.331</v>
+      </c>
+      <c r="N173" s="18">
+        <v>0.47</v>
+      </c>
+      <c r="O173" s="18">
+        <v>0.11</v>
       </c>
       <c r="P173" s="18">
-        <v>0.11</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="Q173" s="18">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="R173" s="18">
         <v>1.4E-2</v>
+      </c>
+      <c r="R173" s="12">
+        <v>47.8</v>
       </c>
       <c r="S173" s="12">
         <v>7.2</v>
@@ -42309,28 +42308,28 @@
         <v>6.5789999999999997</v>
       </c>
       <c r="K174" s="12">
-        <v>7.4</v>
+        <v>2.7</v>
       </c>
       <c r="L174" s="12">
-        <v>7.1</v>
-      </c>
-      <c r="M174" s="12">
-        <v>2.7</v>
-      </c>
-      <c r="N174" s="12">
-        <v>14.9</v>
-      </c>
-      <c r="O174" s="15">
-        <v>194</v>
+        <v>9</v>
+      </c>
+      <c r="M174" s="18">
+        <v>1.76</v>
+      </c>
+      <c r="N174" s="18">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="O174" s="18">
+        <v>0.33800000000000002</v>
       </c>
       <c r="P174" s="18">
-        <v>0.33800000000000002</v>
+        <v>0.158</v>
       </c>
       <c r="Q174" s="18">
-        <v>0.158</v>
-      </c>
-      <c r="R174" s="18">
         <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="R174" s="12">
+        <v>25.1</v>
       </c>
       <c r="S174" s="12">
         <v>6</v>
@@ -42377,28 +42376,28 @@
         <v>11.052</v>
       </c>
       <c r="K175" s="12">
-        <v>8.3000000000000007</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L175" s="12">
-        <v>7.5</v>
-      </c>
-      <c r="M175" s="12">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="N175" s="12">
-        <v>26.9</v>
-      </c>
-      <c r="O175" s="15">
-        <v>211</v>
+        <v>8.9</v>
+      </c>
+      <c r="M175" s="18">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="N175" s="18">
+        <v>0.93</v>
+      </c>
+      <c r="O175" s="18">
+        <v>0.61599999999999999</v>
       </c>
       <c r="P175" s="18">
-        <v>0.61599999999999999</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="Q175" s="18">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="R175" s="18">
         <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="R175" s="12">
+        <v>24.7</v>
       </c>
       <c r="S175" s="12">
         <v>7.5</v>
@@ -42445,28 +42444,28 @@
         <v>6.8490000000000002</v>
       </c>
       <c r="K176" s="12">
-        <v>6.9</v>
+        <v>3.9</v>
       </c>
       <c r="L176" s="12">
-        <v>8.4</v>
-      </c>
-      <c r="M176" s="12">
-        <v>3.9</v>
-      </c>
-      <c r="N176" s="12">
-        <v>10.8</v>
-      </c>
-      <c r="O176" s="15">
-        <v>221</v>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="M176" s="18">
+        <v>2.04</v>
+      </c>
+      <c r="N176" s="18">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="O176" s="18">
+        <v>0.26700000000000002</v>
       </c>
       <c r="P176" s="18">
-        <v>0.26700000000000002</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="Q176" s="18">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="R176" s="18">
         <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="R176" s="12">
+        <v>16.600000000000001</v>
       </c>
       <c r="S176" s="12">
         <v>7.8</v>
@@ -42513,28 +42512,28 @@
         <v>7.835</v>
       </c>
       <c r="K177" s="12">
-        <v>6.9</v>
+        <v>3.4</v>
       </c>
       <c r="L177" s="12">
-        <v>7.4</v>
-      </c>
-      <c r="M177" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="N177" s="12">
-        <v>13.4</v>
-      </c>
-      <c r="O177" s="15">
-        <v>226</v>
+        <v>9.4</v>
+      </c>
+      <c r="M177" s="18">
+        <v>1.863</v>
+      </c>
+      <c r="N177" s="18">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="O177" s="18">
+        <v>0.23200000000000001</v>
       </c>
       <c r="P177" s="18">
-        <v>0.23200000000000001</v>
+        <v>0.185</v>
       </c>
       <c r="Q177" s="18">
-        <v>0.185</v>
-      </c>
-      <c r="R177" s="18">
         <v>7.8E-2</v>
+      </c>
+      <c r="R177" s="12">
+        <v>11.4</v>
       </c>
       <c r="S177" s="12">
         <v>7.4</v>
@@ -42581,28 +42580,28 @@
         <v>2.2269999999999999</v>
       </c>
       <c r="K178" s="12">
-        <v>6.9</v>
+        <v>2.8</v>
       </c>
       <c r="L178" s="12">
-        <v>7.8</v>
-      </c>
-      <c r="M178" s="12">
-        <v>2.8</v>
-      </c>
-      <c r="N178" s="12">
-        <v>7.2</v>
-      </c>
-      <c r="O178" s="15">
-        <v>320</v>
+        <v>9.6</v>
+      </c>
+      <c r="M178" s="18">
+        <v>1.8680000000000001</v>
+      </c>
+      <c r="N178" s="18">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="O178" s="18">
+        <v>0.11899999999999999</v>
       </c>
       <c r="P178" s="18">
-        <v>0.11899999999999999</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="Q178" s="18">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="R178" s="18">
         <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="R178" s="12">
+        <v>16.399999999999999</v>
       </c>
       <c r="S178" s="12">
         <v>7.1</v>
@@ -42649,28 +42648,28 @@
         <v>4.4039999999999999</v>
       </c>
       <c r="K179" s="12">
-        <v>7</v>
+        <v>3.9</v>
       </c>
       <c r="L179" s="12">
-        <v>10.8</v>
-      </c>
-      <c r="M179" s="12">
-        <v>3.9</v>
-      </c>
-      <c r="N179" s="12">
-        <v>10.6</v>
-      </c>
-      <c r="O179" s="15">
-        <v>242</v>
+        <v>11.2</v>
+      </c>
+      <c r="M179" s="18">
+        <v>1.5089999999999999</v>
+      </c>
+      <c r="N179" s="18">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="O179" s="18">
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="P179" s="18">
-        <v>9.0999999999999998E-2</v>
+        <v>0.104</v>
       </c>
       <c r="Q179" s="18">
-        <v>0.104</v>
-      </c>
-      <c r="R179" s="18">
         <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="R179" s="12">
+        <v>23.5</v>
       </c>
       <c r="S179" s="12">
         <v>9.1</v>
@@ -42717,28 +42716,28 @@
         <v>7.9850000000000003</v>
       </c>
       <c r="K180" s="12">
-        <v>7.6</v>
+        <v>4.5</v>
       </c>
       <c r="L180" s="12">
-        <v>6.1</v>
-      </c>
-      <c r="M180" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="N180" s="12">
-        <v>11</v>
-      </c>
-      <c r="O180" s="15">
-        <v>204</v>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="M180" s="18">
+        <v>2.4169999999999998</v>
+      </c>
+      <c r="N180" s="18">
+        <v>1.23</v>
+      </c>
+      <c r="O180" s="18">
+        <v>0.32900000000000001</v>
       </c>
       <c r="P180" s="18">
-        <v>0.32900000000000001</v>
+        <v>0.154</v>
       </c>
       <c r="Q180" s="18">
-        <v>0.154</v>
-      </c>
-      <c r="R180" s="18">
         <v>0.112</v>
+      </c>
+      <c r="R180" s="12">
+        <v>8.3000000000000007</v>
       </c>
       <c r="S180" s="12">
         <v>8</v>
@@ -42785,28 +42784,28 @@
         <v>6.7990000000000004</v>
       </c>
       <c r="K181" s="12">
-        <v>7.9</v>
+        <v>3.7</v>
       </c>
       <c r="L181" s="12">
-        <v>10.5</v>
-      </c>
-      <c r="M181" s="12">
-        <v>3.7</v>
-      </c>
-      <c r="N181" s="12">
-        <v>8</v>
-      </c>
-      <c r="O181" s="15">
-        <v>221</v>
+        <v>8.5</v>
+      </c>
+      <c r="M181" s="18">
+        <v>1.3819999999999999</v>
+      </c>
+      <c r="N181" s="18">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="O181" s="18">
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="P181" s="18">
-        <v>3.3000000000000002E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="Q181" s="18">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="R181" s="18">
         <v>0.05</v>
+      </c>
+      <c r="R181" s="12">
+        <v>21</v>
       </c>
       <c r="S181" s="12">
         <v>8.1999999999999993</v>
@@ -42853,28 +42852,28 @@
         <v>4.0220000000000002</v>
       </c>
       <c r="K182" s="12">
-        <v>6.9</v>
+        <v>2</v>
       </c>
       <c r="L182" s="12">
-        <v>6.8</v>
-      </c>
-      <c r="M182" s="12">
-        <v>2</v>
-      </c>
-      <c r="N182" s="12">
-        <v>5.6</v>
-      </c>
-      <c r="O182" s="15">
-        <v>255</v>
+        <v>6.5</v>
+      </c>
+      <c r="M182" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="N182" s="18">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="O182" s="18">
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="P182" s="18">
-        <v>8.9999999999999993E-3</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="Q182" s="18">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="R182" s="18">
         <v>3.9E-2</v>
+      </c>
+      <c r="R182" s="12">
+        <v>8.4</v>
       </c>
       <c r="S182" s="12">
         <v>6.4</v>
@@ -42921,28 +42920,28 @@
         <v>15.345000000000001</v>
       </c>
       <c r="K183" s="12">
-        <v>7</v>
+        <v>1.3</v>
       </c>
       <c r="L183" s="12">
-        <v>7.4</v>
-      </c>
-      <c r="M183" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="N183" s="12">
-        <v>10.9</v>
-      </c>
-      <c r="O183" s="15">
-        <v>180</v>
+        <v>6</v>
+      </c>
+      <c r="M183" s="18">
+        <v>2.2029999999999998</v>
+      </c>
+      <c r="N183" s="18">
+        <v>1.6990000000000001</v>
+      </c>
+      <c r="O183" s="18">
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="P183" s="18">
-        <v>5.8000000000000003E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="Q183" s="18">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="R183" s="18">
         <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="R183" s="12">
+        <v>3.5</v>
       </c>
       <c r="S183" s="12">
         <v>4.4000000000000004</v>
@@ -42989,28 +42988,28 @@
         <v>30.940999999999999</v>
       </c>
       <c r="K184" s="12">
-        <v>6.7</v>
+        <v>1.5</v>
       </c>
       <c r="L184" s="12">
-        <v>7.9</v>
-      </c>
-      <c r="M184" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="N184" s="12">
-        <v>17.2</v>
-      </c>
-      <c r="O184" s="15">
-        <v>220</v>
+        <v>6.2</v>
+      </c>
+      <c r="M184" s="18">
+        <v>1.978</v>
+      </c>
+      <c r="N184" s="18">
+        <v>1.4450000000000001</v>
+      </c>
+      <c r="O184" s="18">
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="P184" s="18">
-        <v>8.7999999999999995E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="Q184" s="18">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="R184" s="18">
         <v>6.2E-2</v>
+      </c>
+      <c r="R184" s="12">
+        <v>4.8</v>
       </c>
       <c r="S184" s="12">
         <v>5.3</v>
@@ -43057,28 +43056,28 @@
         <v>3.5419999999999998</v>
       </c>
       <c r="K185" s="12">
-        <v>7.3</v>
+        <v>3.3</v>
       </c>
       <c r="L185" s="12">
-        <v>8.9</v>
-      </c>
-      <c r="M185" s="12">
-        <v>3.3</v>
-      </c>
-      <c r="N185" s="12">
-        <v>6.6</v>
-      </c>
-      <c r="O185" s="15">
-        <v>236</v>
+        <v>6.9</v>
+      </c>
+      <c r="M185" s="18">
+        <v>1.222</v>
+      </c>
+      <c r="N185" s="18">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="O185" s="18">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="P185" s="18">
-        <v>4.0000000000000001E-3</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="Q185" s="18">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="R185" s="18">
         <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R185" s="12">
+        <v>44.7</v>
       </c>
       <c r="S185" s="12">
         <v>6.3</v>
@@ -43125,28 +43124,28 @@
         <v>9.7929999999999993</v>
       </c>
       <c r="K186" s="12">
-        <v>6.8</v>
+        <v>3.5</v>
       </c>
       <c r="L186" s="12">
-        <v>6.9</v>
-      </c>
-      <c r="M186" s="12">
-        <v>3.5</v>
-      </c>
-      <c r="N186" s="12">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="O186" s="15">
-        <v>217</v>
+        <v>8.1</v>
+      </c>
+      <c r="M186" s="18">
+        <v>1.0369999999999999</v>
+      </c>
+      <c r="N186" s="18">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="O186" s="18">
+        <v>0.08</v>
       </c>
       <c r="P186" s="18">
-        <v>0.08</v>
+        <v>0.106</v>
       </c>
       <c r="Q186" s="18">
-        <v>0.106</v>
-      </c>
-      <c r="R186" s="18">
         <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="R186" s="12">
+        <v>20.3</v>
       </c>
       <c r="S186" s="12">
         <v>7.1</v>
@@ -43193,28 +43192,28 @@
         <v>4.2629999999999999</v>
       </c>
       <c r="K187" s="12">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="L187" s="12">
-        <v>7.5</v>
-      </c>
-      <c r="M187" s="12">
-        <v>2.1</v>
-      </c>
-      <c r="N187" s="12">
-        <v>5.8</v>
-      </c>
-      <c r="O187" s="15">
-        <v>242</v>
+        <v>10.8</v>
+      </c>
+      <c r="M187" s="18">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="N187" s="18">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="O187" s="18">
+        <v>0.01</v>
       </c>
       <c r="P187" s="18">
-        <v>0.01</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="Q187" s="18">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="R187" s="18">
         <v>3.9E-2</v>
+      </c>
+      <c r="R187" s="12">
+        <v>11.9</v>
       </c>
       <c r="S187" s="12">
         <v>8.8000000000000007</v>
@@ -43261,28 +43260,28 @@
         <v>9.1969999999999992</v>
       </c>
       <c r="K188" s="12">
-        <v>6.8</v>
+        <v>1.4</v>
       </c>
       <c r="L188" s="12">
-        <v>8</v>
-      </c>
-      <c r="M188" s="12">
-        <v>1.4</v>
-      </c>
-      <c r="N188" s="12">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O188" s="15">
-        <v>182</v>
+        <v>5.9</v>
+      </c>
+      <c r="M188" s="18">
+        <v>1.4990000000000001</v>
+      </c>
+      <c r="N188" s="18">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="O188" s="18">
+        <v>0.06</v>
       </c>
       <c r="P188" s="18">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="Q188" s="18">
-        <v>0.08</v>
-      </c>
-      <c r="R188" s="18">
         <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="R188" s="12">
+        <v>5.6</v>
       </c>
       <c r="S188" s="12">
         <v>5.6</v>
@@ -43329,28 +43328,28 @@
         <v>7.835</v>
       </c>
       <c r="K189" s="12">
-        <v>7.6</v>
+        <v>1.6</v>
       </c>
       <c r="L189" s="12">
-        <v>7.4</v>
-      </c>
-      <c r="M189" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="N189" s="12">
-        <v>2.9</v>
-      </c>
-      <c r="O189" s="15">
-        <v>287</v>
+        <v>6.3</v>
+      </c>
+      <c r="M189" s="18">
+        <v>1.8540000000000001</v>
+      </c>
+      <c r="N189" s="18">
+        <v>1.2230000000000001</v>
+      </c>
+      <c r="O189" s="18">
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="P189" s="18">
-        <v>5.7000000000000002E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="Q189" s="18">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="R189" s="18">
         <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R189" s="12">
+        <v>4.8</v>
       </c>
       <c r="S189" s="12">
         <v>5.8</v>
@@ -43397,28 +43396,28 @@
         <v>10.43</v>
       </c>
       <c r="K190" s="12">
-        <v>7</v>
+        <v>1.6</v>
       </c>
       <c r="L190" s="12">
-        <v>7.6</v>
-      </c>
-      <c r="M190" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="N190" s="12">
-        <v>5</v>
-      </c>
-      <c r="O190" s="15">
-        <v>241</v>
+        <v>6.5</v>
+      </c>
+      <c r="M190" s="18">
+        <v>1.7150000000000001</v>
+      </c>
+      <c r="N190" s="18">
+        <v>1.1659999999999999</v>
+      </c>
+      <c r="O190" s="18">
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="P190" s="18">
-        <v>3.2000000000000001E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="Q190" s="18">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="R190" s="18">
         <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="R190" s="12">
+        <v>2.7</v>
       </c>
       <c r="S190" s="12">
         <v>4.5</v>
@@ -43465,28 +43464,28 @@
         <v>3.956</v>
       </c>
       <c r="K191" s="12">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="L191" s="12">
-        <v>7</v>
-      </c>
-      <c r="M191" s="12">
-        <v>1.7</v>
-      </c>
-      <c r="N191" s="12">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="O191" s="15">
-        <v>290</v>
+        <v>5.2</v>
+      </c>
+      <c r="M191" s="18">
+        <v>1.5009999999999999</v>
+      </c>
+      <c r="N191" s="18">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="O191" s="18">
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="P191" s="18">
-        <v>3.7999999999999999E-2</v>
+        <v>0.08</v>
       </c>
       <c r="Q191" s="18">
-        <v>0.08</v>
-      </c>
-      <c r="R191" s="18">
         <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R191" s="12">
+        <v>10.199999999999999</v>
       </c>
       <c r="S191" s="12">
         <v>3.8</v>
@@ -43533,28 +43532,28 @@
         <v>19.125</v>
       </c>
       <c r="K192" s="12">
-        <v>7.3</v>
+        <v>1.6</v>
       </c>
       <c r="L192" s="12">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="M192" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="N192" s="12">
-        <v>5.5</v>
-      </c>
-      <c r="O192" s="15">
-        <v>157</v>
+        <v>6.1</v>
+      </c>
+      <c r="M192" s="18">
+        <v>2.1219999999999999</v>
+      </c>
+      <c r="N192" s="18">
+        <v>1.681</v>
+      </c>
+      <c r="O192" s="18">
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="P192" s="18">
-        <v>2.8000000000000001E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="Q192" s="18">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="R192" s="18">
         <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="R192" s="12">
+        <v>4.2</v>
       </c>
       <c r="S192" s="12">
         <v>4.0999999999999996</v>
@@ -43601,28 +43600,28 @@
         <v>8.8659999999999997</v>
       </c>
       <c r="K193" s="12">
-        <v>7.3</v>
+        <v>1.5</v>
       </c>
       <c r="L193" s="12">
-        <v>9.5</v>
-      </c>
-      <c r="M193" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="N193" s="12">
-        <v>2.9</v>
-      </c>
-      <c r="O193" s="15">
-        <v>207</v>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M193" s="18">
+        <v>1.452</v>
+      </c>
+      <c r="N193" s="18">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="O193" s="18">
+        <v>0.03</v>
       </c>
       <c r="P193" s="18">
-        <v>0.03</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="Q193" s="18">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="R193" s="18">
         <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="R193" s="12">
+        <v>10.7</v>
       </c>
       <c r="S193" s="12">
         <v>3.7</v>
@@ -43669,28 +43668,28 @@
         <v>13.89</v>
       </c>
       <c r="K194" s="12">
-        <v>7.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L194" s="12">
-        <v>11.5</v>
-      </c>
-      <c r="M194" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N194" s="12">
-        <v>4.2</v>
-      </c>
-      <c r="O194" s="15">
-        <v>159</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M194" s="18">
+        <v>2.1739999999999999</v>
+      </c>
+      <c r="N194" s="18">
+        <v>1.867</v>
+      </c>
+      <c r="O194" s="18">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="P194" s="18">
-        <v>7.0999999999999994E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="Q194" s="18">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="R194" s="18">
         <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="R194" s="12">
+        <v>3.7</v>
       </c>
       <c r="S194" s="12">
         <v>2.6</v>
@@ -43737,28 +43736,28 @@
         <v>3.9020000000000001</v>
       </c>
       <c r="K195" s="12">
-        <v>8.1999999999999993</v>
+        <v>1</v>
       </c>
       <c r="L195" s="12">
-        <v>11.2</v>
-      </c>
-      <c r="M195" s="12">
-        <v>1</v>
-      </c>
-      <c r="N195" s="12">
-        <v>3.1</v>
-      </c>
-      <c r="O195" s="15">
-        <v>289</v>
+        <v>4</v>
+      </c>
+      <c r="M195" s="18">
+        <v>2.472</v>
+      </c>
+      <c r="N195" s="18">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O195" s="18">
+        <v>1.6E-2</v>
       </c>
       <c r="P195" s="18">
-        <v>1.6E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="Q195" s="18">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="R195" s="18">
         <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="R195" s="12">
+        <v>2.6</v>
       </c>
       <c r="S195" s="12">
         <v>2.9</v>
@@ -43805,28 +43804,28 @@
         <v>6.4550000000000001</v>
       </c>
       <c r="K196" s="12">
-        <v>7.5</v>
+        <v>1.2</v>
       </c>
       <c r="L196" s="12">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="M196" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="N196" s="12">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="O196" s="15">
-        <v>250</v>
+        <v>4.8</v>
+      </c>
+      <c r="M196" s="18">
+        <v>1.5529999999999999</v>
+      </c>
+      <c r="N196" s="18">
+        <v>1.2509999999999999</v>
+      </c>
+      <c r="O196" s="18">
+        <v>0.03</v>
       </c>
       <c r="P196" s="18">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="Q196" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="R196" s="18">
         <v>1.2E-2</v>
+      </c>
+      <c r="R196" s="12">
+        <v>12.5</v>
       </c>
       <c r="S196" s="12">
         <v>3</v>
@@ -43873,28 +43872,28 @@
         <v>2.9969999999999999</v>
       </c>
       <c r="K197" s="12">
-        <v>7.7</v>
+        <v>2</v>
       </c>
       <c r="L197" s="12">
-        <v>9</v>
-      </c>
-      <c r="M197" s="12">
-        <v>2</v>
-      </c>
-      <c r="N197" s="12">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="O197" s="15">
-        <v>309</v>
+        <v>5.4</v>
+      </c>
+      <c r="M197" s="18">
+        <v>1.671</v>
+      </c>
+      <c r="N197" s="18">
+        <v>1.482</v>
+      </c>
+      <c r="O197" s="18">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="P197" s="18">
-        <v>6.0000000000000001E-3</v>
+        <v>3.1E-2</v>
       </c>
       <c r="Q197" s="18">
-        <v>3.1E-2</v>
-      </c>
-      <c r="R197" s="18">
         <v>2E-3</v>
+      </c>
+      <c r="R197" s="12">
+        <v>21.4</v>
       </c>
       <c r="S197" s="12">
         <v>4.5999999999999996</v>
@@ -43941,28 +43940,28 @@
         <v>2.1059999999999999</v>
       </c>
       <c r="K198" s="12">
-        <v>7.8</v>
+        <v>3.9</v>
       </c>
       <c r="L198" s="12">
-        <v>9.4</v>
-      </c>
-      <c r="M198" s="12">
-        <v>3.9</v>
-      </c>
-      <c r="N198" s="12">
-        <v>11.3</v>
-      </c>
-      <c r="O198" s="15">
-        <v>365</v>
+        <v>7.6</v>
+      </c>
+      <c r="M198" s="18">
+        <v>1.6619999999999999</v>
+      </c>
+      <c r="N198" s="18">
+        <v>1.2230000000000001</v>
+      </c>
+      <c r="O198" s="18">
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="P198" s="18">
-        <v>8.9999999999999993E-3</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="Q198" s="18">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="R198" s="18">
         <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="R198" s="12">
+        <v>85.9</v>
       </c>
       <c r="S198" s="12">
         <v>7.4</v>
@@ -44009,28 +44008,28 @@
         <v>3.7879999999999998</v>
       </c>
       <c r="K199" s="12">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="L199" s="12">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="M199" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="N199" s="12">
-        <v>9.1</v>
-      </c>
-      <c r="O199" s="15">
-        <v>290</v>
+        <v>6.4</v>
+      </c>
+      <c r="M199" s="18">
+        <v>2.016</v>
+      </c>
+      <c r="N199" s="18">
+        <v>1.4490000000000001</v>
+      </c>
+      <c r="O199" s="18">
+        <v>0.11</v>
       </c>
       <c r="P199" s="18">
-        <v>0.11</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="Q199" s="18">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="R199" s="18">
         <v>0.04</v>
+      </c>
+      <c r="R199" s="12">
+        <v>12.2</v>
       </c>
       <c r="S199" s="12">
         <v>5.9</v>
@@ -44077,28 +44076,28 @@
         <v>5.9370000000000003</v>
       </c>
       <c r="K200" s="12">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="L200" s="12">
-        <v>9.4</v>
-      </c>
-      <c r="M200" s="12">
-        <v>3.8</v>
-      </c>
-      <c r="N200" s="12">
-        <v>16.2</v>
-      </c>
-      <c r="O200" s="15">
-        <v>275</v>
+        <v>6.8</v>
+      </c>
+      <c r="M200" s="18">
+        <v>2.1240000000000001</v>
+      </c>
+      <c r="N200" s="18">
+        <v>1.516</v>
+      </c>
+      <c r="O200" s="18">
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="P200" s="18">
-        <v>6.7000000000000004E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="Q200" s="18">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="R200" s="18">
         <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="R200" s="12">
+        <v>41.4</v>
       </c>
       <c r="S200" s="12">
         <v>5.7</v>
@@ -44145,28 +44144,28 @@
         <v>2.4580000000000002</v>
       </c>
       <c r="K201" s="12">
-        <v>7.8</v>
+        <v>3.5</v>
       </c>
       <c r="L201" s="12">
-        <v>10.3</v>
-      </c>
-      <c r="M201" s="12">
-        <v>3.5</v>
-      </c>
-      <c r="N201" s="12">
-        <v>9.1</v>
-      </c>
-      <c r="O201" s="15">
-        <v>342</v>
+        <v>7</v>
+      </c>
+      <c r="M201" s="18">
+        <v>2.0939999999999999</v>
+      </c>
+      <c r="N201" s="18">
+        <v>1.5780000000000001</v>
+      </c>
+      <c r="O201" s="18">
+        <v>1.2E-2</v>
       </c>
       <c r="P201" s="18">
-        <v>1.2E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="Q201" s="18">
-        <v>6.3E-2</v>
-      </c>
-      <c r="R201" s="18">
         <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="R201" s="12">
+        <v>61.4</v>
       </c>
       <c r="S201" s="12">
         <v>6.9</v>
@@ -44213,28 +44212,28 @@
         <v>5.4550000000000001</v>
       </c>
       <c r="K202" s="12">
-        <v>7.9</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L202" s="12">
-        <v>10.7</v>
-      </c>
-      <c r="M202" s="12">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="N202" s="12">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="O202" s="15">
-        <v>319</v>
+        <v>6.2</v>
+      </c>
+      <c r="M202" s="18">
+        <v>2.0710000000000002</v>
+      </c>
+      <c r="N202" s="18">
+        <v>1.7090000000000001</v>
+      </c>
+      <c r="O202" s="18">
+        <v>3.9E-2</v>
       </c>
       <c r="P202" s="18">
-        <v>3.9E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="Q202" s="18">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="R202" s="18">
         <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="R202" s="12">
+        <v>51.4</v>
       </c>
       <c r="S202" s="12">
         <v>6</v>
@@ -44281,28 +44280,28 @@
         <v>3.11</v>
       </c>
       <c r="K203" s="12">
-        <v>7.9</v>
+        <v>3</v>
       </c>
       <c r="L203" s="12">
-        <v>12.7</v>
-      </c>
-      <c r="M203" s="12">
-        <v>3</v>
-      </c>
-      <c r="N203" s="12">
-        <v>5.7</v>
-      </c>
-      <c r="O203" s="15">
-        <v>340</v>
+        <v>5.6</v>
+      </c>
+      <c r="M203" s="18">
+        <v>2.4260000000000002</v>
+      </c>
+      <c r="N203" s="18">
+        <v>2.101</v>
+      </c>
+      <c r="O203" s="18">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="P203" s="18">
-        <v>6.0000000000000001E-3</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="Q203" s="18">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="R203" s="18">
         <v>0.01</v>
+      </c>
+      <c r="R203" s="12">
+        <v>21.6</v>
       </c>
       <c r="S203" s="12">
         <v>5.3</v>
@@ -44349,28 +44348,28 @@
         <v>3.843</v>
       </c>
       <c r="K204" s="12">
-        <v>8.1999999999999993</v>
+        <v>2.4</v>
       </c>
       <c r="L204" s="12">
-        <v>12.2</v>
-      </c>
-      <c r="M204" s="12">
-        <v>2.4</v>
-      </c>
-      <c r="N204" s="12">
-        <v>7.1</v>
-      </c>
-      <c r="O204" s="15">
-        <v>369</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M204" s="18">
+        <v>2.7349999999999999</v>
+      </c>
+      <c r="N204" s="18">
+        <v>2.2570000000000001</v>
+      </c>
+      <c r="O204" s="18">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="P204" s="18">
-        <v>2.9000000000000001E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="Q204" s="18">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="R204" s="18">
         <v>1.4E-2</v>
+      </c>
+      <c r="R204" s="12">
+        <v>36</v>
       </c>
       <c r="S204" s="12">
         <v>4.7</v>
@@ -44417,28 +44416,28 @@
         <v>2.8359999999999999</v>
       </c>
       <c r="K205" s="12">
-        <v>7.6</v>
+        <v>1.7</v>
       </c>
       <c r="L205" s="12">
-        <v>11.9</v>
-      </c>
-      <c r="M205" s="12">
-        <v>1.7</v>
-      </c>
-      <c r="N205" s="12">
-        <v>3</v>
-      </c>
-      <c r="O205" s="15">
-        <v>348</v>
+        <v>3.8</v>
+      </c>
+      <c r="M205" s="18">
+        <v>2.996</v>
+      </c>
+      <c r="N205" s="18">
+        <v>2.3980000000000001</v>
+      </c>
+      <c r="O205" s="18">
+        <v>0.23300000000000001</v>
       </c>
       <c r="P205" s="18">
-        <v>0.23300000000000001</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="Q205" s="18">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="R205" s="18">
         <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="R205" s="12">
+        <v>3.1</v>
       </c>
       <c r="S205" s="12">
         <v>3.5</v>
